--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E1E1275-BF8D-4659-9D71-829E1AF3E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F9E54D-54CE-4889-AC89-1BC31F88EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{947386CB-A7DD-4624-9750-EAEFE454BD79}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{93BF1794-4DC9-410A-8583-AF5EE5C7DE97}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67B69E2-432C-44A8-9F41-66C27094FF63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B58F87E-31B7-4C3E-950E-972279FC88DF}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4290C47-1916-491C-AFEA-22FB117FFD75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA23A4E-6477-4146-A4C3-79FEEA915A92}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB3EA6-1E00-4DEA-830E-9350C241DA55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65FCFD6-ED9E-4F70-8290-891B3D923F87}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F9E54D-54CE-4889-AC89-1BC31F88EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AE441A-2C2E-4CDB-808D-C4B2F69A4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{93BF1794-4DC9-410A-8583-AF5EE5C7DE97}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5999CA25-9A78-481E-8F66-0BDD8060B48B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B58F87E-31B7-4C3E-950E-972279FC88DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6C679-C0AB-41FA-99A4-0A6C638A9F1B}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA23A4E-6477-4146-A4C3-79FEEA915A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6B20D-AC83-435A-A6C2-C20306320F1C}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65FCFD6-ED9E-4F70-8290-891B3D923F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664E71C0-9361-47CB-8F67-9FABA735454E}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AE441A-2C2E-4CDB-808D-C4B2F69A4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2275C336-1955-42A0-B4F0-DC2ED04CE8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5999CA25-9A78-481E-8F66-0BDD8060B48B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CF06E2E0-A394-40F6-AB79-27B4AB518F13}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA6C679-C0AB-41FA-99A4-0A6C638A9F1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D76A79-985D-4552-A9C8-F65872EAEE2E}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6B20D-AC83-435A-A6C2-C20306320F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76FE72C-1F5C-4A2D-B732-CD3840464AF5}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664E71C0-9361-47CB-8F67-9FABA735454E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD7869-A325-475F-8955-ED84EC0793A9}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2275C336-1955-42A0-B4F0-DC2ED04CE8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A382EFFF-6804-4ED8-AD8A-8B1DDE87A5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CF06E2E0-A394-40F6-AB79-27B4AB518F13}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{73C19F8C-0F2C-4A37-86FD-8AA5C509D0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D76A79-985D-4552-A9C8-F65872EAEE2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F799FED9-C13A-4606-AC68-AA4D8885A748}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76FE72C-1F5C-4A2D-B732-CD3840464AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664A2D6-5207-487F-83B3-DB683A2E6E80}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD7869-A325-475F-8955-ED84EC0793A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63DD042-7226-4E35-9E08-81313387ACBE}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A382EFFF-6804-4ED8-AD8A-8B1DDE87A5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6D5139-3A4D-4983-B6BF-770658AC3CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{73C19F8C-0F2C-4A37-86FD-8AA5C509D0C5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{34F044B6-4439-4B92-AE1B-FC0F3F3B3D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F799FED9-C13A-4606-AC68-AA4D8885A748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB4C85-71D6-46DD-B94B-18C06C5C7EDA}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664A2D6-5207-487F-83B3-DB683A2E6E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6F121-FBEB-4446-A774-555D952E770C}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63DD042-7226-4E35-9E08-81313387ACBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE401BD5-D802-4024-A408-271FF423F41F}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6D5139-3A4D-4983-B6BF-770658AC3CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FAA90E-105B-4EE5-92E3-FB4DFC128780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{34F044B6-4439-4B92-AE1B-FC0F3F3B3D1E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90DFCF55-610D-4375-A026-A1129868227A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB4C85-71D6-46DD-B94B-18C06C5C7EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8081FC-BB9F-46EE-A525-E2B0D9C2A534}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED6F121-FBEB-4446-A774-555D952E770C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E8877-E15B-4D28-B5F0-915C6E766FD0}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE401BD5-D802-4024-A408-271FF423F41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8391BE1D-9F63-4487-B033-557E61103735}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FAA90E-105B-4EE5-92E3-FB4DFC128780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1077B664-4233-40D0-969D-F69CA8191BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90DFCF55-610D-4375-A026-A1129868227A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{39B2BE46-3996-4066-9D1F-728FF310CCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8081FC-BB9F-46EE-A525-E2B0D9C2A534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7707A553-FAAD-48EC-887E-37EAC7F2AC40}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E8877-E15B-4D28-B5F0-915C6E766FD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DFE4B-26BB-4BEF-AFAC-8347855FFBC9}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8391BE1D-9F63-4487-B033-557E61103735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFCB00C-31CF-456A-9EFC-CEE765D2D106}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1077B664-4233-40D0-969D-F69CA8191BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCBBBF2-5290-40CA-B5BC-2F6DAED73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{39B2BE46-3996-4066-9D1F-728FF310CCDF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{141C8834-36F3-4C16-BCCD-438BD6F701C2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7707A553-FAAD-48EC-887E-37EAC7F2AC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC1EE6-777C-489D-A0DF-FDF915B68F48}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DFE4B-26BB-4BEF-AFAC-8347855FFBC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2005968D-E36C-4B53-B9CF-07BA321F920F}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFCB00C-31CF-456A-9EFC-CEE765D2D106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F6D8A-967F-4189-B1EB-61EB2EC64789}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCBBBF2-5290-40CA-B5BC-2F6DAED73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6421E881-994D-4F25-8259-29312DEE363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{141C8834-36F3-4C16-BCCD-438BD6F701C2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{137D42E4-F5D1-4781-9D60-3A3A28FAA422}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC1EE6-777C-489D-A0DF-FDF915B68F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97DD0D-4B73-49BE-90A0-AE15DA3811A0}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2005968D-E36C-4B53-B9CF-07BA321F920F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5DDB59-107E-4005-857E-91736AC07B4B}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F6D8A-967F-4189-B1EB-61EB2EC64789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E14C94-E476-4243-83B7-F8BD2B7D1A2D}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6421E881-994D-4F25-8259-29312DEE363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8320F7-11E4-4D6A-B2ED-7C273B267948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{137D42E4-F5D1-4781-9D60-3A3A28FAA422}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B1506DA1-9871-43E2-8D5F-199D1113EC04}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B97DD0D-4B73-49BE-90A0-AE15DA3811A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8F3371-E978-42BF-B052-15A6197A24AD}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5DDB59-107E-4005-857E-91736AC07B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86439D-82BA-414A-B4E4-A58A9EA6E3AD}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E14C94-E476-4243-83B7-F8BD2B7D1A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC018971-974B-4907-BA85-4A0DE369264E}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8320F7-11E4-4D6A-B2ED-7C273B267948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A514A837-13F4-425B-8519-D786814A1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B1506DA1-9871-43E2-8D5F-199D1113EC04}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90EB0C0D-373F-480B-ABAE-060D874D616A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8F3371-E978-42BF-B052-15A6197A24AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20251CD3-A9D4-4876-ADDA-74A4998A3E4B}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86439D-82BA-414A-B4E4-A58A9EA6E3AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514334C0-C4F9-4AAE-BA1C-7F06F6A8154C}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC018971-974B-4907-BA85-4A0DE369264E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DC684E-4F87-4A25-9B08-6568F21B00CF}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A514A837-13F4-425B-8519-D786814A1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E79160-19F6-41B1-9002-80C2268146B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90EB0C0D-373F-480B-ABAE-060D874D616A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D9096031-DA0D-42A9-B11D-38F4171C7619}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20251CD3-A9D4-4876-ADDA-74A4998A3E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC68AD-5359-474C-BD88-BAA1C0371C43}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514334C0-C4F9-4AAE-BA1C-7F06F6A8154C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB392C-A472-4A6D-920B-239287C188AD}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DC684E-4F87-4A25-9B08-6568F21B00CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF97E32-0F7A-474F-BDA5-855DA2D621D2}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E79160-19F6-41B1-9002-80C2268146B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA96BCC-C746-4186-88E1-DDDECAD4C213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D9096031-DA0D-42A9-B11D-38F4171C7619}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1133CEDE-A03A-4213-A44F-A9E7084DC7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC68AD-5359-474C-BD88-BAA1C0371C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C0A0D-359D-47A0-A9F5-4BF728169DBC}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB392C-A472-4A6D-920B-239287C188AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB9D941-395A-44AE-B287-5BA24C14555F}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF97E32-0F7A-474F-BDA5-855DA2D621D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E33D93F-FE1D-46BC-AACB-9A1A453209F6}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA96BCC-C746-4186-88E1-DDDECAD4C213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13F8DBB-6A8E-4F13-9EBF-C2F013183293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1133CEDE-A03A-4213-A44F-A9E7084DC7B1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7D45A00-6066-4510-B01C-0291BE31BC76}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C0A0D-359D-47A0-A9F5-4BF728169DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80101AC9-B77E-4C27-A0A5-F0C312E2B2E7}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB9D941-395A-44AE-B287-5BA24C14555F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A2178E-E626-4EC6-A684-D247FED6AD6E}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E33D93F-FE1D-46BC-AACB-9A1A453209F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFE627C-C469-4B26-9545-5861D6AAE9C2}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13F8DBB-6A8E-4F13-9EBF-C2F013183293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEDD27D-BE0B-4EE8-8266-13EE8785B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7D45A00-6066-4510-B01C-0291BE31BC76}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C323ABDF-0069-4E1D-BFE2-C1D7C4BA9F11}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80101AC9-B77E-4C27-A0A5-F0C312E2B2E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3397F2-EBDD-47E5-923E-8B6D105E5EB5}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A2178E-E626-4EC6-A684-D247FED6AD6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6327E5A-1A18-41CC-AA9A-E3089069D409}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFE627C-C469-4B26-9545-5861D6AAE9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7851E1E5-81A3-4BD0-9C7C-2C1CB6BB1BC1}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEDD27D-BE0B-4EE8-8266-13EE8785B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56141513-A67D-4EBD-8C2A-1B8CD4240C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C323ABDF-0069-4E1D-BFE2-C1D7C4BA9F11}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B7E1653C-8EB3-4D6A-955E-571B17E85045}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3397F2-EBDD-47E5-923E-8B6D105E5EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42CC398-703F-448C-9911-4BC0F0650AEC}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3999,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6327E5A-1A18-41CC-AA9A-E3089069D409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C16D0A7-B7E3-40E4-A805-24843EE4C993}">
   <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5756,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7851E1E5-81A3-4BD0-9C7C-2C1CB6BB1BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7088F2A6-6530-40CB-B5FC-F6528DA18D38}">
   <dimension ref="A2:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56141513-A67D-4EBD-8C2A-1B8CD4240C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AD9F2B-C607-4DC7-B31D-DE22A09F7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B7E1653C-8EB3-4D6A-955E-571B17E85045}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8FDE7F57-12AA-472F-B157-6F620ECD01C8}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="96">
   <si>
     <t>process</t>
   </si>
@@ -70,81 +70,21 @@
     <t>ncap_tlife</t>
   </si>
   <si>
+    <t>ep_bioenergy</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
     <t>ep_coal_subcritical</t>
   </si>
   <si>
     <t>coal</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000100971</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000100972</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000100973</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000102332</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106668__m</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106669</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106670</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106671</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106672</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106673</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106674</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106675</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106676</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106677</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106678</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106679</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106680</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106681</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106682</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108557</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108666__m</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108667</t>
-  </si>
-  <si>
     <t>ep_coal_subcritical__m</t>
   </si>
   <si>
@@ -157,16 +97,7 @@
     <t>ep_gas_steam_turbine</t>
   </si>
   <si>
-    <t>ep_gas_steam_turbine_G100000400048</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406325</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406326__m</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406327__m</t>
+    <t>ep_gas_steam_turbine__m</t>
   </si>
   <si>
     <t>ep_hydro_dam</t>
@@ -175,25 +106,7 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>ep_hydro_dam_G100000600364</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600367</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600368</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600370</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600371</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600372</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000600373</t>
+    <t>ep_hydro_dam_</t>
   </si>
   <si>
     <t>ep_hydro_ps_G100000600365</t>
@@ -211,7 +124,7 @@
     <t>ep_nuclear_G100000500192</t>
   </si>
   <si>
-    <t>ep_solar_PV</t>
+    <t>ep_solar_pv</t>
   </si>
   <si>
     <t>solar</t>
@@ -220,27 +133,6 @@
     <t>ELC_Sol-BGR</t>
   </si>
   <si>
-    <t>ep_solar_solar</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100000807270</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100000818822</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100001004681</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100001004682</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100001004684</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100001023568</t>
-  </si>
-  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -250,9 +142,6 @@
     <t>ELC_Win-BGR</t>
   </si>
   <si>
-    <t>ep_wind_onshore_G100000919655</t>
-  </si>
-  <si>
     <t>set</t>
   </si>
   <si>
@@ -289,139 +178,25 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Bobov Dol power station_Unit 1</t>
+    <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Chaira hydroelectric plant_</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>Bobov Dol power station_Unit 2</t>
-  </si>
-  <si>
-    <t>Bobov Dol power station_Unit 3</t>
-  </si>
-  <si>
-    <t>Deven power station_Unit 1</t>
-  </si>
-  <si>
-    <t>Maritsa 3 power station_--</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 3</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 4</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 5</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 6</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 7</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-2 power station_Unit 8</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-3 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-3 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-3 power station_Unit 3</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-3 power station_Unit 4</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-1 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>Maritsa Iztok-1 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>Republika power station_Unit 5</t>
-  </si>
-  <si>
-    <t>Ruse Iztok power station_Unit 3</t>
-  </si>
-  <si>
-    <t>Ruse Iztok power station_Unit 4</t>
-  </si>
-  <si>
-    <t>Sofia Iztok power station_1</t>
-  </si>
-  <si>
-    <t>Varna power station_Unit 6, timepoint 2</t>
-  </si>
-  <si>
-    <t>Varna power station_Unit 5, timepoint 2</t>
-  </si>
-  <si>
-    <t>Varna power station_Unit 4, timepoint 2</t>
-  </si>
-  <si>
-    <t>Belmeken hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Ivailovgrad hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Kardjali hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Momina Klisura hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Orfeus hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Peshtera hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Sestrimo hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>Chaira hydroelectric plant_</t>
-  </si>
-  <si>
     <t>Kozloduy nuclear power plant_6</t>
   </si>
   <si>
     <t>Kozloduy nuclear power plant_5</t>
   </si>
   <si>
-    <t>Tenovo solar farm_--</t>
-  </si>
-  <si>
-    <t>Verila solar farm_--</t>
-  </si>
-  <si>
-    <t>Galabovo solar farm_--</t>
-  </si>
-  <si>
-    <t>Karlovo solar farm_--</t>
-  </si>
-  <si>
-    <t>Bobov Dol solar farm_--</t>
-  </si>
-  <si>
-    <t>Apriltsi solar farm_other phases</t>
-  </si>
-  <si>
-    <t>Saint Nikola wind farm_--</t>
+    <t>annual</t>
   </si>
   <si>
     <t>~fi_t</t>
@@ -439,72 +214,6 @@
     <t>prc_refit</t>
   </si>
   <si>
-    <t>ep_coal_subcritical_G100000100971_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000100972_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000100973_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000102332_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106668__m_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106669_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106670_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106671_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106672_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106673_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106674_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106675_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106676_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106677_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106678_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106679_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106680_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106681_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000106682_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108557_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108666__m_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_coal_subcritical_G100000108667_ccs-rf</t>
-  </si>
-  <si>
     <t>ep_coal_subcritical__m_ccs-rf</t>
   </si>
   <si>
@@ -514,111 +223,21 @@
     <t>ep_gas_combined_cycle_ccs-rf</t>
   </si>
   <si>
-    <t>ep_gas_steam_turbine_G100000400048_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406325_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406326__m_ccs-rf</t>
-  </si>
-  <si>
-    <t>ep_gas_steam_turbine_G100000406327__m_ccs-rf</t>
+    <t>ep_gas_steam_turbine__m_ccs-rf</t>
   </si>
   <si>
     <t>ep_gas_steam_turbine_ccs-rf</t>
   </si>
   <si>
-    <t>ccs retrofit of -- Bobov Dol power station_Unit 1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Bobov Dol power station_Unit 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Bobov Dol power station_Unit 3</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Deven power station_Unit 1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa 3 power station_--</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 3</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 4</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 5</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 6</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 7</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 8</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 3</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 4</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-1 power station_Unit 1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Maritsa Iztok-1 power station_Unit 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Republika power station_Unit 5</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Ruse Iztok power station_Unit 3</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Ruse Iztok power station_Unit 4</t>
-  </si>
-  <si>
     <t>ccs retrofit of -- Aggregated Plant</t>
   </si>
   <si>
-    <t>ccs retrofit of -- Sofia Iztok power station_1</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Varna power station_Unit 6, timepoint 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Varna power station_Unit 5, timepoint 2</t>
-  </si>
-  <si>
-    <t>ccs retrofit of -- Varna power station_Unit 4, timepoint 2</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
     <t>Bioenergy + CCUS</t>
   </si>
   <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
     <t>ncap_af</t>
   </si>
   <si>
@@ -658,7 +277,7 @@
     <t>Gas turbine</t>
   </si>
   <si>
-    <t>Geothermal</t>
+    <t>Geothermal plant</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -676,7 +295,10 @@
     <t>IGCC + CCS</t>
   </si>
   <si>
-    <t>Marine</t>
+    <t>Marine power</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Nuclear large</t>
@@ -1074,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42CC398-703F-448C-9911-4BC0F0650AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0E2282-5C75-4541-895D-DC2C409A3528}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1083,10 +705,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1109,36 +731,36 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1156,30 +778,30 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1194,33 +816,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1238,30 +860,30 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1279,30 +901,30 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1317,33 +939,33 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1361,30 +983,30 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1399,33 +1021,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1443,30 +1065,30 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1484,30 +1106,30 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1522,33 +1144,33 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1566,30 +1188,30 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1604,33 +1226,33 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1648,30 +1270,30 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1689,30 +1311,30 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1727,33 +1349,33 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1771,30 +1393,30 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1809,33 +1431,33 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1853,30 +1475,30 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1894,30 +1516,30 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1932,33 +1554,33 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1976,30 +1598,30 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -2017,30 +1639,30 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -2058,30 +1680,30 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -2099,30 +1721,30 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -2140,30 +1762,30 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -2181,30 +1803,30 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -2224,10 +1846,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -2247,10 +1869,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2270,10 +1892,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2293,10 +1915,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2316,10 +1938,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2339,10 +1961,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2362,10 +1984,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2380,15 +2002,15 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2408,10 +2030,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2431,10 +2053,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2449,15 +2071,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2477,10 +2099,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2500,10 +2122,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2523,10 +2145,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2546,10 +2168,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2569,10 +2191,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2592,10 +2214,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2615,10 +2237,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2633,15 +2255,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2661,10 +2283,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2684,10 +2306,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2702,15 +2324,15 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2730,10 +2352,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2748,15 +2370,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2776,10 +2398,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2799,10 +2421,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2817,15 +2439,15 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2845,10 +2467,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2863,15 +2485,15 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2891,10 +2513,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2914,10 +2536,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2932,15 +2554,15 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2960,10 +2582,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2983,10 +2605,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -3006,10 +2628,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -3029,10 +2651,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -3052,10 +2674,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -3075,10 +2697,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -3098,10 +2720,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -3116,15 +2738,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -3144,10 +2766,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -3167,10 +2789,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3185,15 +2807,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -3213,10 +2835,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -3236,10 +2858,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -3259,10 +2881,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3282,10 +2904,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3305,10 +2927,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3328,10 +2950,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -3351,10 +2973,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3369,15 +2991,15 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3397,10 +3019,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3420,10 +3042,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -3438,15 +3060,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -3466,10 +3088,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3484,15 +3106,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -3512,10 +3134,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -3535,10 +3157,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -3553,15 +3175,15 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -3581,10 +3203,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3604,10 +3226,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -3627,10 +3249,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -3650,10 +3272,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3673,10 +3295,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -3696,10 +3318,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -3719,10 +3341,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3742,10 +3364,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3765,10 +3387,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3788,10 +3410,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3806,15 +3428,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3834,10 +3456,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3857,10 +3479,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3875,15 +3497,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -3903,10 +3525,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3921,15 +3543,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3949,10 +3571,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -3972,10 +3594,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -3990,7 +3612,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3999,8 +3621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C16D0A7-B7E3-40E4-A805-24843EE4C993}">
-  <dimension ref="A2:T33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A72B4-AE05-4033-97B8-C8DC2137F4AD}">
+  <dimension ref="A2:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4008,10 +3630,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -4037,66 +3659,66 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.13348799999999997</v>
+        <v>0.10019840000000002</v>
       </c>
       <c r="E4">
-        <v>3144</v>
+        <v>3583</v>
       </c>
       <c r="F4">
-        <v>43.8</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>3.94</v>
+        <v>4.59</v>
       </c>
       <c r="H4">
-        <v>0.59565000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4105,54 +3727,54 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.13348799999999997</v>
+        <v>0.11272320000000002</v>
       </c>
       <c r="E5">
-        <v>3144</v>
+        <v>3583</v>
       </c>
       <c r="F5">
-        <v>43.8</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>3.94</v>
+        <v>4.59</v>
       </c>
       <c r="H5">
-        <v>0.59565000000000001</v>
+        <v>0.5605</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4161,54 +3783,54 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.13348799999999997</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="E6">
-        <v>3144</v>
+        <v>1365</v>
       </c>
       <c r="F6">
-        <v>43.8</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G6">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="H6">
-        <v>0.59565000000000001</v>
+        <v>0.84455000000000002</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4217,54 +3839,54 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.17299880000000001</v>
+        <v>0.31093124999999994</v>
       </c>
       <c r="E7">
-        <v>2757</v>
+        <v>1365</v>
       </c>
       <c r="F7">
-        <v>39.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G7">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="H7">
-        <v>0.63080000000000003</v>
+        <v>0.84455000000000002</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -4273,54 +3895,54 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.133488</v>
+        <v>0.31093124999999994</v>
       </c>
       <c r="E8">
-        <v>3144</v>
+        <v>1365</v>
       </c>
       <c r="F8">
-        <v>43.8</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G8">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="H8">
-        <v>0.59565000000000001</v>
+        <v>0.84455000000000002</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -4329,1425 +3951,25 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E9">
-        <v>3583</v>
-      </c>
-      <c r="F9">
         <v>49</v>
-      </c>
-      <c r="G9">
-        <v>4.59</v>
-      </c>
-      <c r="H9">
-        <v>0.5605</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E10">
-        <v>3583</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>4.59</v>
-      </c>
-      <c r="H10">
-        <v>0.5605</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E11">
-        <v>3583</v>
-      </c>
-      <c r="F11">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>4.59</v>
-      </c>
-      <c r="H11">
-        <v>0.5605</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E12">
-        <v>3583</v>
-      </c>
-      <c r="F12">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>4.59</v>
-      </c>
-      <c r="H12">
-        <v>0.5605</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="N12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>141</v>
-      </c>
-      <c r="P12" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>0.13765950000000002</v>
-      </c>
-      <c r="E13">
-        <v>3144</v>
-      </c>
-      <c r="F13">
-        <v>43.8</v>
-      </c>
-      <c r="G13">
-        <v>3.94</v>
-      </c>
-      <c r="H13">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0.13765950000000002</v>
-      </c>
-      <c r="E14">
-        <v>3144</v>
-      </c>
-      <c r="F14">
-        <v>43.8</v>
-      </c>
-      <c r="G14">
-        <v>3.94</v>
-      </c>
-      <c r="H14">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>0.13765950000000002</v>
-      </c>
-      <c r="E15">
-        <v>3144</v>
-      </c>
-      <c r="F15">
-        <v>43.8</v>
-      </c>
-      <c r="G15">
-        <v>3.94</v>
-      </c>
-      <c r="H15">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>0.17299880000000001</v>
-      </c>
-      <c r="E16">
-        <v>2757</v>
-      </c>
-      <c r="F16">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G16">
-        <v>3.35</v>
-      </c>
-      <c r="H16">
-        <v>0.63080000000000003</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" t="s">
-        <v>145</v>
-      </c>
-      <c r="P16" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>0.133488</v>
-      </c>
-      <c r="E17">
-        <v>3144</v>
-      </c>
-      <c r="F17">
-        <v>43.8</v>
-      </c>
-      <c r="G17">
-        <v>3.94</v>
-      </c>
-      <c r="H17">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>79</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>0.133488</v>
-      </c>
-      <c r="E18">
-        <v>3144</v>
-      </c>
-      <c r="F18">
-        <v>43.8</v>
-      </c>
-      <c r="G18">
-        <v>3.94</v>
-      </c>
-      <c r="H18">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="N18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" t="s">
-        <v>147</v>
-      </c>
-      <c r="P18" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>0.133488</v>
-      </c>
-      <c r="E19">
-        <v>3144</v>
-      </c>
-      <c r="F19">
-        <v>43.8</v>
-      </c>
-      <c r="G19">
-        <v>3.94</v>
-      </c>
-      <c r="H19">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>20</v>
-      </c>
-      <c r="N19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>0.13765950000000002</v>
-      </c>
-      <c r="E20">
-        <v>3144</v>
-      </c>
-      <c r="F20">
-        <v>43.8</v>
-      </c>
-      <c r="G20">
-        <v>3.94</v>
-      </c>
-      <c r="H20">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>20</v>
-      </c>
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>0.18317520000000001</v>
-      </c>
-      <c r="E21">
-        <v>2757</v>
-      </c>
-      <c r="F21">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G21">
-        <v>3.35</v>
-      </c>
-      <c r="H21">
-        <v>0.63080000000000003</v>
-      </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>79</v>
-      </c>
-      <c r="R21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>0.18317520000000001</v>
-      </c>
-      <c r="E22">
-        <v>2757</v>
-      </c>
-      <c r="F22">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G22">
-        <v>3.35</v>
-      </c>
-      <c r="H22">
-        <v>0.63080000000000003</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>20</v>
-      </c>
-      <c r="N22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O22" t="s">
-        <v>151</v>
-      </c>
-      <c r="P22" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>79</v>
-      </c>
-      <c r="R22" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>8.7673600000000032E-2</v>
-      </c>
-      <c r="E23">
-        <v>3583</v>
-      </c>
-      <c r="F23">
-        <v>49</v>
-      </c>
-      <c r="G23">
-        <v>4.59</v>
-      </c>
-      <c r="H23">
-        <v>0.5605</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="N23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" t="s">
-        <v>152</v>
-      </c>
-      <c r="P23" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E24">
-        <v>3583</v>
-      </c>
-      <c r="F24">
-        <v>49</v>
-      </c>
-      <c r="G24">
-        <v>4.59</v>
-      </c>
-      <c r="H24">
-        <v>0.5605</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>20</v>
-      </c>
-      <c r="N24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>79</v>
-      </c>
-      <c r="R24" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" t="s">
-        <v>81</v>
-      </c>
-      <c r="T24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>0.133488</v>
-      </c>
-      <c r="E25">
-        <v>3144</v>
-      </c>
-      <c r="F25">
-        <v>43.8</v>
-      </c>
-      <c r="G25">
-        <v>3.94</v>
-      </c>
-      <c r="H25">
-        <v>0.59565000000000001</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="N25" t="s">
-        <v>77</v>
-      </c>
-      <c r="O25" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>79</v>
-      </c>
-      <c r="R25" t="s">
-        <v>80</v>
-      </c>
-      <c r="S25" t="s">
-        <v>81</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>9.3936000000000006E-2</v>
-      </c>
-      <c r="E26">
-        <v>3583</v>
-      </c>
-      <c r="F26">
-        <v>49</v>
-      </c>
-      <c r="G26">
-        <v>4.59</v>
-      </c>
-      <c r="H26">
-        <v>0.5605</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>79</v>
-      </c>
-      <c r="R26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s">
-        <v>81</v>
-      </c>
-      <c r="T26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>0.10646080000000004</v>
-      </c>
-      <c r="E27">
-        <v>3583</v>
-      </c>
-      <c r="F27">
-        <v>49</v>
-      </c>
-      <c r="G27">
-        <v>4.59</v>
-      </c>
-      <c r="H27">
-        <v>0.5605</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>20</v>
-      </c>
-      <c r="N27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" t="s">
-        <v>156</v>
-      </c>
-      <c r="P27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>79</v>
-      </c>
-      <c r="R27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" t="s">
-        <v>81</v>
-      </c>
-      <c r="T27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>0.48667500000000002</v>
-      </c>
-      <c r="E28">
-        <v>1365</v>
-      </c>
-      <c r="F28">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G28">
-        <v>3.75</v>
-      </c>
-      <c r="H28">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
-      <c r="N28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" t="s">
-        <v>157</v>
-      </c>
-      <c r="P28" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>79</v>
-      </c>
-      <c r="R28" t="s">
-        <v>80</v>
-      </c>
-      <c r="S28" t="s">
-        <v>81</v>
-      </c>
-      <c r="T28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>0.27037500000000003</v>
-      </c>
-      <c r="E29">
-        <v>1365</v>
-      </c>
-      <c r="F29">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G29">
-        <v>3.75</v>
-      </c>
-      <c r="H29">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>20</v>
-      </c>
-      <c r="N29" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" t="s">
-        <v>158</v>
-      </c>
-      <c r="P29" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>0.31093124999999994</v>
-      </c>
-      <c r="E30">
-        <v>1365</v>
-      </c>
-      <c r="F30">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G30">
-        <v>3.75</v>
-      </c>
-      <c r="H30">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>20</v>
-      </c>
-      <c r="N30" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" t="s">
-        <v>159</v>
-      </c>
-      <c r="P30" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s">
-        <v>80</v>
-      </c>
-      <c r="S30" t="s">
-        <v>81</v>
-      </c>
-      <c r="T30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>0.31093124999999994</v>
-      </c>
-      <c r="E31">
-        <v>1365</v>
-      </c>
-      <c r="F31">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G31">
-        <v>3.75</v>
-      </c>
-      <c r="H31">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" t="s">
-        <v>160</v>
-      </c>
-      <c r="P31" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s">
-        <v>80</v>
-      </c>
-      <c r="S31" t="s">
-        <v>81</v>
-      </c>
-      <c r="T31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>0.31093124999999994</v>
-      </c>
-      <c r="E32">
-        <v>1365</v>
-      </c>
-      <c r="F32">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G32">
-        <v>3.75</v>
-      </c>
-      <c r="H32">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
-      </c>
-      <c r="N32" t="s">
-        <v>77</v>
-      </c>
-      <c r="O32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P32" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>79</v>
-      </c>
-      <c r="R32" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" t="s">
-        <v>81</v>
-      </c>
-      <c r="T32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>0.27938750000000001</v>
-      </c>
-      <c r="E33">
-        <v>1365</v>
-      </c>
-      <c r="F33">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G33">
-        <v>3.75</v>
-      </c>
-      <c r="H33">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>20</v>
-      </c>
-      <c r="N33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O33" t="s">
-        <v>162</v>
-      </c>
-      <c r="P33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>79</v>
-      </c>
-      <c r="R33" t="s">
-        <v>80</v>
-      </c>
-      <c r="S33" t="s">
-        <v>81</v>
-      </c>
-      <c r="T33" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5756,8 +3978,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7088F2A6-6530-40CB-B5FC-F6528DA18D38}">
-  <dimension ref="A2:S85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97457CF6-C771-4B95-A870-F257979132F9}">
+  <dimension ref="A2:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5765,10 +3987,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -5803,25 +4025,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -5835,119 +4057,119 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1959</v>
+        <v>2022</v>
       </c>
       <c r="E4">
         <v>0.05</v>
       </c>
       <c r="F4">
-        <v>0.27810000000000001</v>
+        <v>0.3296</v>
       </c>
       <c r="G4">
-        <v>2970.0000000000005</v>
+        <v>5197.5</v>
       </c>
       <c r="H4">
-        <v>85.800000000000011</v>
+        <v>185.9</v>
       </c>
       <c r="I4">
-        <v>6.3000000000000007</v>
+        <v>10.08</v>
       </c>
       <c r="J4">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="F5">
-        <v>0.29869999999999997</v>
+        <v>0.28840000000000005</v>
       </c>
       <c r="G5">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H5">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I5">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="E6">
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>0.29869999999999997</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="G6">
         <v>2970.0000000000005</v>
@@ -5959,45 +4181,45 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="J6">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>0.29869999999999997</v>
@@ -6012,101 +4234,101 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="J7">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1985</v>
+        <v>1962</v>
       </c>
       <c r="E8">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>0.33990000000000004</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G8">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H8">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I8">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J8">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="E9">
-        <v>5.2999999999999999E-2</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F9">
-        <v>0.35020000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="G9">
         <v>2530</v>
@@ -6115,31 +4337,31 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I9">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -6147,19 +4369,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E10">
-        <v>0.21</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F10">
-        <v>0.32959999999999995</v>
+        <v>0.309</v>
       </c>
       <c r="G10">
         <v>2530</v>
@@ -6171,48 +4393,48 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J10">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="E11">
-        <v>0.21</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F11">
-        <v>0.32959999999999995</v>
+        <v>0.309</v>
       </c>
       <c r="G11">
         <v>2530</v>
@@ -6224,101 +4446,101 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J11">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="E12">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.32959999999999995</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G12">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H12">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I12">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>2009</v>
+        <v>1971</v>
       </c>
       <c r="E13">
-        <v>0.121</v>
+        <v>0.11</v>
       </c>
       <c r="F13">
-        <v>0.35020000000000001</v>
+        <v>0.3296</v>
       </c>
       <c r="G13">
         <v>2530</v>
@@ -6330,48 +4552,48 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J13">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E14">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F14">
-        <v>0.3296</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="G14">
         <v>2530</v>
@@ -6383,48 +4605,48 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J14">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="E15">
-        <v>0.17699999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="F15">
-        <v>0.309</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="G15">
         <v>2530</v>
@@ -6436,48 +4658,48 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="E16">
-        <v>0.16500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F16">
-        <v>0.309</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="G16">
         <v>2530</v>
@@ -6489,48 +4711,48 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J16">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1967</v>
+        <v>1978</v>
       </c>
       <c r="E17">
-        <v>0.17699999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F17">
-        <v>0.309</v>
+        <v>0.3296</v>
       </c>
       <c r="G17">
         <v>2530</v>
@@ -6539,51 +4761,51 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I17">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J17">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="E18">
-        <v>0.17699999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F18">
-        <v>0.309</v>
+        <v>0.3296</v>
       </c>
       <c r="G18">
         <v>2530</v>
@@ -6592,51 +4814,30 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I18">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J18">
-        <v>87</v>
-      </c>
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>97</v>
-      </c>
-      <c r="P18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="E19">
-        <v>0.21</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F19">
-        <v>0.33990000000000004</v>
+        <v>0.3296</v>
       </c>
       <c r="G19">
         <v>2530</v>
@@ -6645,48 +4846,27 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I19">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J19">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="E20">
-        <v>0.23200000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F20">
         <v>0.33990000000000004</v>
@@ -6698,48 +4878,27 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I20">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J20">
-        <v>70</v>
-      </c>
-      <c r="M20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>80</v>
-      </c>
-      <c r="R20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="E21">
-        <v>0.23200000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="F21">
         <v>0.33990000000000004</v>
@@ -6754,48 +4913,27 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J21">
-        <v>65</v>
-      </c>
-      <c r="M21" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>80</v>
-      </c>
-      <c r="R21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="E22">
         <v>0.23200000000000001</v>
       </c>
       <c r="F22">
-        <v>0.35020000000000001</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G22">
         <v>2530</v>
@@ -6807,48 +4945,27 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J22">
-        <v>60</v>
-      </c>
-      <c r="M22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>80</v>
-      </c>
-      <c r="R22" t="s">
-        <v>81</v>
-      </c>
-      <c r="S22" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1978</v>
+        <v>1995</v>
       </c>
       <c r="E23">
-        <v>0.22700000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F23">
-        <v>0.3296</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="G23">
         <v>2530</v>
@@ -6857,51 +4974,30 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I23">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J23">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>1979</v>
+        <v>2009</v>
       </c>
       <c r="E24">
-        <v>0.22700000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="F24">
-        <v>0.3296</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="G24">
         <v>2530</v>
@@ -6910,104 +5006,62 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I24">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J24">
-        <v>76</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" t="s">
-        <v>103</v>
-      </c>
-      <c r="P24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="E25">
-        <v>0.22700000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="F25">
-        <v>0.3296</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="G25">
-        <v>2530</v>
+        <v>2200</v>
       </c>
       <c r="H25">
-        <v>72.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="I25">
-        <v>5.7750000000000012</v>
+        <v>5.25</v>
       </c>
       <c r="J25">
-        <v>75</v>
-      </c>
-      <c r="M25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" t="s">
-        <v>104</v>
-      </c>
-      <c r="P25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>80</v>
-      </c>
-      <c r="R25" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="E26">
-        <v>0.22700000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F26">
-        <v>0.33990000000000004</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="G26">
         <v>2530</v>
@@ -7019,195 +5073,111 @@
         <v>5.7750000000000012</v>
       </c>
       <c r="J26">
-        <v>74</v>
-      </c>
-      <c r="M26" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" t="s">
-        <v>105</v>
-      </c>
-      <c r="P26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>80</v>
-      </c>
-      <c r="R26" t="s">
-        <v>81</v>
-      </c>
-      <c r="S26" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="E27">
-        <v>0.34499999999999997</v>
+        <v>1.000000000000334E-3</v>
       </c>
       <c r="F27">
-        <v>0.37080000000000002</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G27">
-        <v>2200</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H27">
-        <v>66</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I27">
-        <v>5.25</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J27">
         <v>50</v>
       </c>
-      <c r="M27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>80</v>
-      </c>
-      <c r="R27" t="s">
-        <v>81</v>
-      </c>
-      <c r="S27" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>2011</v>
+        <v>1962</v>
       </c>
       <c r="E28">
-        <v>0.34499999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="F28">
-        <v>0.37080000000000002</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G28">
-        <v>2200</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I28">
-        <v>5.25</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J28">
-        <v>50</v>
-      </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>80</v>
-      </c>
-      <c r="R28" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1951</v>
+        <v>1964</v>
       </c>
       <c r="E29">
-        <v>0.105</v>
+        <v>0.06</v>
       </c>
       <c r="F29">
-        <v>0.28840000000000005</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G29">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H29">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I29">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J29">
-        <v>104</v>
-      </c>
-      <c r="M29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" t="s">
-        <v>81</v>
-      </c>
-      <c r="S29" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -7233,311 +5203,185 @@
       <c r="J30">
         <v>89</v>
       </c>
-      <c r="M30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>80</v>
-      </c>
-      <c r="R30" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="E31">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>0.3296</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G31">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H31">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I31">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J31">
-        <v>84</v>
-      </c>
-      <c r="M31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" t="s">
-        <v>107</v>
-      </c>
-      <c r="P31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F32">
-        <v>0.29869999999999997</v>
+        <v>0.309</v>
       </c>
       <c r="G32">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H32">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I32">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J32">
-        <v>93</v>
-      </c>
-      <c r="M32" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" t="s">
-        <v>81</v>
-      </c>
-      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>1971</v>
+      </c>
+      <c r="E33">
+        <v>0.12</v>
+      </c>
+      <c r="F33">
+        <v>0.3296</v>
+      </c>
+      <c r="G33">
+        <v>2530</v>
+      </c>
+      <c r="H33">
+        <v>72.600000000000009</v>
+      </c>
+      <c r="I33">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="J33">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>1964</v>
-      </c>
-      <c r="E33">
-        <v>0.06</v>
-      </c>
-      <c r="F33">
-        <v>0.29869999999999997</v>
-      </c>
-      <c r="G33">
-        <v>2970.0000000000005</v>
-      </c>
-      <c r="H33">
-        <v>85.800000000000011</v>
-      </c>
-      <c r="I33">
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="J33">
-        <v>91</v>
-      </c>
-      <c r="M33" t="s">
-        <v>77</v>
-      </c>
-      <c r="N33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>80</v>
-      </c>
-      <c r="R33" t="s">
-        <v>81</v>
-      </c>
-      <c r="S33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>1969</v>
+        <v>2007</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F34">
-        <v>0.29869999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G34">
-        <v>2970.0000000000005</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="H34">
-        <v>85.800000000000011</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="I34">
-        <v>6.3000000000000007</v>
+        <v>3.78</v>
       </c>
       <c r="J34">
-        <v>86</v>
-      </c>
-      <c r="M34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>80</v>
-      </c>
-      <c r="R34" t="s">
-        <v>81</v>
-      </c>
-      <c r="S34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1970</v>
+        <v>2011</v>
       </c>
       <c r="E35">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
-        <v>0.309</v>
+        <v>0.55620000000000003</v>
       </c>
       <c r="G35">
-        <v>2530</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="H35">
-        <v>72.600000000000009</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="I35">
-        <v>5.7750000000000004</v>
+        <v>3.78</v>
       </c>
       <c r="J35">
-        <v>85</v>
-      </c>
-      <c r="M35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" t="s">
-        <v>110</v>
-      </c>
-      <c r="P35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35" t="s">
-        <v>81</v>
-      </c>
-      <c r="S35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.2999999999999997E-2</v>
+        <v>1.8999999999999909E-2</v>
       </c>
       <c r="F36">
-        <v>0.51500000000000001</v>
+        <v>0.57680000000000009</v>
       </c>
       <c r="G36">
         <v>1485.0000000000002</v>
@@ -7546,145 +5390,82 @@
         <v>42.900000000000006</v>
       </c>
       <c r="I36">
-        <v>3.78</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="J36">
         <v>50</v>
       </c>
-      <c r="M36" t="s">
-        <v>77</v>
-      </c>
-      <c r="N36" t="s">
-        <v>46</v>
-      </c>
-      <c r="O36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>80</v>
-      </c>
-      <c r="R36" t="s">
-        <v>81</v>
-      </c>
-      <c r="S36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37">
-        <v>2011</v>
+        <v>1962</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F37">
-        <v>0.55620000000000003</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G37">
-        <v>1485.0000000000002</v>
+        <v>1782.0000000000005</v>
       </c>
       <c r="H37">
-        <v>42.900000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="I37">
-        <v>3.78</v>
+        <v>5.67</v>
       </c>
       <c r="J37">
-        <v>50</v>
-      </c>
-      <c r="M37" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37" t="s">
-        <v>47</v>
-      </c>
-      <c r="O37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>80</v>
-      </c>
-      <c r="R37" t="s">
-        <v>81</v>
-      </c>
-      <c r="S37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E38">
-        <v>7.4999999999999997E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F38">
-        <v>0.29869999999999997</v>
+        <v>0.309</v>
       </c>
       <c r="G38">
-        <v>1782.0000000000005</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="H38">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I38">
-        <v>5.67</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="J38">
-        <v>93</v>
-      </c>
-      <c r="M38" t="s">
-        <v>77</v>
-      </c>
-      <c r="N38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" t="s">
-        <v>113</v>
-      </c>
-      <c r="P38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -7710,34 +5491,13 @@
       <c r="J39">
         <v>79</v>
       </c>
-      <c r="M39" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" t="s">
-        <v>49</v>
-      </c>
-      <c r="O39" t="s">
-        <v>114</v>
-      </c>
-      <c r="P39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>80</v>
-      </c>
-      <c r="R39" t="s">
-        <v>81</v>
-      </c>
-      <c r="S39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -7763,34 +5523,13 @@
       <c r="J40">
         <v>78</v>
       </c>
-      <c r="M40" t="s">
-        <v>77</v>
-      </c>
-      <c r="N40" t="s">
-        <v>50</v>
-      </c>
-      <c r="O40" t="s">
-        <v>115</v>
-      </c>
-      <c r="P40" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>80</v>
-      </c>
-      <c r="R40" t="s">
-        <v>81</v>
-      </c>
-      <c r="S40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -7816,34 +5555,13 @@
       <c r="J41">
         <v>77</v>
       </c>
-      <c r="M41" t="s">
-        <v>77</v>
-      </c>
-      <c r="N41" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>80</v>
-      </c>
-      <c r="R41" t="s">
-        <v>81</v>
-      </c>
-      <c r="S41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -7869,46 +5587,25 @@
       <c r="J42">
         <v>70</v>
       </c>
-      <c r="M42" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" t="s">
-        <v>52</v>
-      </c>
-      <c r="O42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P42" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>80</v>
-      </c>
-      <c r="R42" t="s">
-        <v>81</v>
-      </c>
-      <c r="S42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>1964</v>
+        <v>2019</v>
       </c>
       <c r="E43">
-        <v>0.16700000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F43">
-        <v>0.309</v>
+        <v>0.35534999999999994</v>
       </c>
       <c r="G43">
         <v>1518.0000000000002</v>
@@ -7920,36 +5617,15 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="J43">
-        <v>91</v>
-      </c>
-      <c r="M43" t="s">
-        <v>77</v>
-      </c>
-      <c r="N43" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" t="s">
-        <v>78</v>
-      </c>
-      <c r="P43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>80</v>
-      </c>
-      <c r="R43" t="s">
-        <v>81</v>
-      </c>
-      <c r="S43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -7958,7 +5634,7 @@
         <v>2019</v>
       </c>
       <c r="E44">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="F44">
         <v>0.35534999999999994</v>
@@ -7975,149 +5651,86 @@
       <c r="J44">
         <v>50</v>
       </c>
-      <c r="M44" t="s">
-        <v>77</v>
-      </c>
-      <c r="N44" t="s">
-        <v>54</v>
-      </c>
-      <c r="O44" t="s">
-        <v>119</v>
-      </c>
-      <c r="P44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>80</v>
-      </c>
-      <c r="R44" t="s">
-        <v>81</v>
-      </c>
-      <c r="S44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>2019</v>
+        <v>1958</v>
       </c>
       <c r="E45">
-        <v>0.21</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F45">
-        <v>0.35534999999999994</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1518.0000000000002</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H45">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I45">
-        <v>5.1975000000000007</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J45">
-        <v>50</v>
-      </c>
-      <c r="M45" t="s">
-        <v>77</v>
-      </c>
-      <c r="N45" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" t="s">
-        <v>120</v>
-      </c>
-      <c r="P45" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>80</v>
-      </c>
-      <c r="R45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>2019</v>
+        <v>1959</v>
       </c>
       <c r="E46">
-        <v>0.21</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F46">
-        <v>0.35534999999999994</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1518.0000000000002</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H46">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I46">
-        <v>5.1975000000000007</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J46">
-        <v>50</v>
-      </c>
-      <c r="M46" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" t="s">
-        <v>57</v>
-      </c>
-      <c r="O46" t="s">
-        <v>78</v>
-      </c>
-      <c r="P46" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>80</v>
-      </c>
-      <c r="R46" t="s">
-        <v>81</v>
-      </c>
-      <c r="S46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="E47">
-        <v>8.1000000000000003E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8134,43 +5747,22 @@
       <c r="J47">
         <v>100</v>
       </c>
-      <c r="M47" t="s">
-        <v>77</v>
-      </c>
-      <c r="N47" t="s">
-        <v>60</v>
-      </c>
-      <c r="O47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P47" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>80</v>
-      </c>
-      <c r="R47" t="s">
-        <v>81</v>
-      </c>
-      <c r="S47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="E48">
-        <v>0.08</v>
+        <v>0.114</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -8187,49 +5779,28 @@
       <c r="J48">
         <v>100</v>
       </c>
-      <c r="M48" t="s">
-        <v>77</v>
-      </c>
-      <c r="N48" t="s">
-        <v>61</v>
-      </c>
-      <c r="O48" t="s">
-        <v>121</v>
-      </c>
-      <c r="P48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>80</v>
-      </c>
-      <c r="R48" t="s">
-        <v>81</v>
-      </c>
-      <c r="S48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>2009</v>
+        <v>1972</v>
       </c>
       <c r="E49">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H49">
         <v>60.500000000000014</v>
@@ -8240,34 +5811,13 @@
       <c r="J49">
         <v>100</v>
       </c>
-      <c r="M49" t="s">
-        <v>77</v>
-      </c>
-      <c r="N49" t="s">
-        <v>62</v>
-      </c>
-      <c r="O49" t="s">
-        <v>122</v>
-      </c>
-      <c r="P49" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>80</v>
-      </c>
-      <c r="R49" t="s">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -8276,60 +5826,39 @@
         <v>1974</v>
       </c>
       <c r="E50">
-        <v>0.375</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>2750</v>
+        <v>2910.9756097560976</v>
       </c>
       <c r="H50">
-        <v>55.000000000000007</v>
+        <v>57.146341463414643</v>
       </c>
       <c r="I50">
-        <v>2.1</v>
+        <v>2.1819512195121953</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
-      <c r="M50" t="s">
-        <v>77</v>
-      </c>
-      <c r="N50" t="s">
-        <v>63</v>
-      </c>
-      <c r="O50" t="s">
-        <v>123</v>
-      </c>
-      <c r="P50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>80</v>
-      </c>
-      <c r="R50" t="s">
-        <v>81</v>
-      </c>
-      <c r="S50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1964</v>
+        <v>1975</v>
       </c>
       <c r="E51">
-        <v>0.114</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8346,49 +5875,28 @@
       <c r="J51">
         <v>100</v>
       </c>
-      <c r="M51" t="s">
-        <v>77</v>
-      </c>
-      <c r="N51" t="s">
-        <v>64</v>
-      </c>
-      <c r="O51" t="s">
-        <v>124</v>
-      </c>
-      <c r="P51" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>80</v>
-      </c>
-      <c r="R51" t="s">
-        <v>81</v>
-      </c>
-      <c r="S51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>1963</v>
+        <v>2009</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="H52">
         <v>60.500000000000014</v>
@@ -8399,1082 +5907,741 @@
       <c r="J52">
         <v>100</v>
       </c>
-      <c r="M52" t="s">
-        <v>77</v>
-      </c>
-      <c r="N52" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52" t="s">
-        <v>125</v>
-      </c>
-      <c r="P52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>80</v>
-      </c>
-      <c r="R52" t="s">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>1975</v>
+        <v>2022</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>0.76518499999999978</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="H53">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I53">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
-      <c r="M53" t="s">
-        <v>77</v>
-      </c>
-      <c r="N53" t="s">
-        <v>66</v>
-      </c>
-      <c r="O53" t="s">
-        <v>126</v>
-      </c>
-      <c r="P53" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>80</v>
-      </c>
-      <c r="R53" t="s">
-        <v>81</v>
-      </c>
-      <c r="S53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="E54">
-        <v>0.16</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>3162.5000000000005</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H54">
-        <v>60.500000000000014</v>
+        <v>44</v>
       </c>
       <c r="I54">
-        <v>2.3100000000000005</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
-      <c r="M54" t="s">
-        <v>77</v>
-      </c>
-      <c r="N54" t="s">
-        <v>67</v>
-      </c>
-      <c r="O54" t="s">
-        <v>78</v>
-      </c>
-      <c r="P54" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>80</v>
-      </c>
-      <c r="R54" t="s">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>1959</v>
+        <v>1984</v>
       </c>
       <c r="E55">
-        <v>0.13500000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>3162.5000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H55">
-        <v>60.500000000000014</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I55">
-        <v>2.3100000000000005</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
-      <c r="M55" t="s">
-        <v>77</v>
-      </c>
-      <c r="N55" t="s">
-        <v>70</v>
-      </c>
-      <c r="O55" t="s">
-        <v>127</v>
-      </c>
-      <c r="P55" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>80</v>
-      </c>
-      <c r="R55" t="s">
-        <v>81</v>
-      </c>
-      <c r="S55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>1974</v>
+        <v>2015</v>
       </c>
       <c r="E56">
-        <v>0.24</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>3162.5000000000005</v>
+        <v>2783</v>
       </c>
       <c r="H56">
-        <v>60.500000000000014</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I56">
-        <v>2.3100000000000005</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E57">
-        <v>0.86399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1980.0000000000002</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H57">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="I57">
-        <v>1.5750000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="E58">
-        <v>0.14799999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>2783</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H58">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="I58">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D59">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E59">
-        <v>7.0999999999999994E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>2783</v>
+        <v>1336.5</v>
       </c>
       <c r="H59">
-        <v>66.550000000000011</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I59">
-        <v>2.8875000000000002</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="E60">
-        <v>1.04</v>
+        <v>4.0799999999999996E-2</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="H60">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I60">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>1988</v>
+        <v>2012</v>
       </c>
       <c r="E61">
-        <v>1.04</v>
+        <v>0.34</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>7150.0000000000009</v>
+        <v>1271.8588235294117</v>
       </c>
       <c r="H61">
-        <v>165</v>
+        <v>20.372647058823539</v>
       </c>
       <c r="I61">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E62">
-        <v>4.7999999999999996E-3</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F62">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1336.5</v>
+      </c>
+      <c r="H62">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E63">
-        <v>4.0799999999999996E-2</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="F63">
-        <v>0.33123000000000008</v>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1336.4999999999995</v>
+      </c>
+      <c r="H63">
+        <v>21.449999999999989</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E64">
-        <v>0.13200000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F64">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1336.5</v>
+      </c>
+      <c r="H64">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E65">
-        <v>2.12E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F65">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1186.02</v>
+      </c>
+      <c r="H65">
+        <v>18.942</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E66">
-        <v>0.88529999999999998</v>
+        <v>0.34343700000000005</v>
       </c>
       <c r="F66">
-        <v>0.33122999999999986</v>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1147.1478742826196</v>
+      </c>
+      <c r="H66">
+        <v>18.294131238043661</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E67">
-        <v>1.7999999999999999E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F67">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1138.5</v>
+      </c>
+      <c r="H67">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E68">
-        <v>1.4999999999999999E-2</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F68">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1169.390977443609</v>
+      </c>
+      <c r="H68">
+        <v>18.664849624060157</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>2012</v>
+        <v>2025</v>
       </c>
       <c r="E69">
-        <v>0.20799999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>7521.7788461538476</v>
+        <v>1138.5</v>
       </c>
       <c r="H69">
-        <v>85.318750000000009</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I69">
-        <v>2.4079326923076922</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E70">
-        <v>2.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>8167.5000000000018</v>
+        <v>2376</v>
       </c>
       <c r="H70">
-        <v>92.950000000000017</v>
+        <v>57.2</v>
       </c>
       <c r="I70">
         <v>2.52</v>
       </c>
       <c r="J70">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="E71">
-        <v>5.7000000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>6957.5</v>
+        <v>2376</v>
       </c>
       <c r="H71">
-        <v>78.650000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="I71">
-        <v>2.3100000000000005</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="J71">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D72">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E72">
-        <v>0.159</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>6957.5</v>
+        <v>2207.04</v>
       </c>
       <c r="H72">
-        <v>78.65000000000002</v>
+        <v>52.975999999999999</v>
       </c>
       <c r="I72">
-        <v>2.3100000000000005</v>
+        <v>2.4192</v>
       </c>
       <c r="J72">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D73">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="E73">
-        <v>0.17499999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>7531.3857142857159</v>
+        <v>2232.3265306122448</v>
       </c>
       <c r="H73">
-        <v>85.432285714285712</v>
+        <v>53.608163265306118</v>
       </c>
       <c r="I73">
-        <v>2.4096000000000002</v>
+        <v>2.4342857142857146</v>
       </c>
       <c r="J73">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D74">
-        <v>2025</v>
+        <v>2012</v>
       </c>
       <c r="E74">
-        <v>0.23799999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>6957.5</v>
+        <v>2376</v>
       </c>
       <c r="H74">
-        <v>78.650000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="I74">
-        <v>2.3100000000000005</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J74">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D75">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E75">
-        <v>0.124</v>
+        <v>9.6310000000000007E-2</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>6957.5</v>
+        <v>2024</v>
       </c>
       <c r="H75">
-        <v>78.650000000000006</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I75">
         <v>2.3100000000000005</v>
       </c>
       <c r="J75">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76">
-        <v>2023</v>
-      </c>
-      <c r="E76">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>6957.5</v>
-      </c>
-      <c r="H76">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="I76">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J76">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77">
-        <v>2024</v>
-      </c>
-      <c r="E77">
-        <v>0.107</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>6957.5</v>
-      </c>
-      <c r="H77">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="I77">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J77">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78">
-        <v>0.1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>6957.5</v>
-      </c>
-      <c r="H78">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="I78">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79">
-        <v>2024</v>
-      </c>
-      <c r="E79">
-        <v>0.25</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>6957.5</v>
-      </c>
-      <c r="H79">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="I79">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J79">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80">
-        <v>2008</v>
-      </c>
-      <c r="E80">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>2376</v>
-      </c>
-      <c r="H80">
-        <v>57.2</v>
-      </c>
-      <c r="I80">
-        <v>2.52</v>
-      </c>
-      <c r="J80">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81">
-        <v>2009</v>
-      </c>
-      <c r="E81">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>2376</v>
-      </c>
-      <c r="H81">
-        <v>57.2</v>
-      </c>
-      <c r="I81">
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="J81">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82">
-        <v>2010</v>
-      </c>
-      <c r="E82">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>2376</v>
-      </c>
-      <c r="H82">
-        <v>57.199999999999996</v>
-      </c>
-      <c r="I82">
-        <v>2.52</v>
-      </c>
-      <c r="J82">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83">
-        <v>2011</v>
-      </c>
-      <c r="E83">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>2232.3265306122448</v>
-      </c>
-      <c r="H83">
-        <v>53.608163265306118</v>
-      </c>
-      <c r="I83">
-        <v>2.4342857142857146</v>
-      </c>
-      <c r="J83">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84">
-        <v>2012</v>
-      </c>
-      <c r="E84">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>2376</v>
-      </c>
-      <c r="H84">
-        <v>57.2</v>
-      </c>
-      <c r="I84">
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="J84">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85">
-        <v>2010</v>
-      </c>
-      <c r="E85">
-        <v>0.156</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>2024</v>
-      </c>
-      <c r="H85">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I85">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J85">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AD9F2B-C607-4DC7-B31D-DE22A09F7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55751A54-74F6-45DC-9534-03EAA2A78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8FDE7F57-12AA-472F-B157-6F620ECD01C8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3EA507D8-872F-4F56-B117-FF8BD6B968BF}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0E2282-5C75-4541-895D-DC2C409A3528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC24AD10-A5B8-4A9D-8180-0BB1C448069D}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3621,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A72B4-AE05-4033-97B8-C8DC2137F4AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47754E4F-9321-455D-B181-F702BFF3CB7A}">
   <dimension ref="A2:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3978,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97457CF6-C771-4B95-A870-F257979132F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0AEF48-58C6-4651-9AA4-DC903D2673E3}">
   <dimension ref="A2:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55751A54-74F6-45DC-9534-03EAA2A78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E2273A-B299-469D-B361-F42AA998098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3EA507D8-872F-4F56-B117-FF8BD6B968BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3F0164CB-5A3B-4756-8604-07A001F6FF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="228">
   <si>
     <t>process</t>
   </si>
@@ -85,6 +85,72 @@
     <t>coal</t>
   </si>
   <si>
+    <t>ep_coal_subcritical_G100000100971</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000100972</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000100973</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000102332</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106668__m</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106669</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106670</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106671</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106672</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106673</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106674</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106675</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106676</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106677</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106678</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106679</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106680</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106681</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106682</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108557</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108666__m</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108667</t>
+  </si>
+  <si>
     <t>ep_coal_subcritical__m</t>
   </si>
   <si>
@@ -97,7 +163,16 @@
     <t>ep_gas_steam_turbine</t>
   </si>
   <si>
-    <t>ep_gas_steam_turbine__m</t>
+    <t>ep_gas_steam_turbine_G100000400048</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406325</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406326__m</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406327__m</t>
   </si>
   <si>
     <t>ep_hydro_dam</t>
@@ -109,6 +184,27 @@
     <t>ep_hydro_dam_</t>
   </si>
   <si>
+    <t>ep_hydro_dam_G100000600364</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600367</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600368</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600370</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600371</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600372</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_G100000600373</t>
+  </si>
+  <si>
     <t>ep_hydro_ps_G100000600365</t>
   </si>
   <si>
@@ -133,6 +229,27 @@
     <t>ELC_Sol-BGR</t>
   </si>
   <si>
+    <t>ep_solar_pv_</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100000807270</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100000818822</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100001004681</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100001004682</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100001004684</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100001023568</t>
+  </si>
+  <si>
     <t>ep_wind_onshore</t>
   </si>
   <si>
@@ -142,6 +259,9 @@
     <t>ELC_Win-BGR</t>
   </si>
   <si>
+    <t>ep_wind_onshore_G100000919655</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -178,18 +298,117 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Bobov Dol power station_Unit 1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Bobov Dol power station_Unit 2</t>
+  </si>
+  <si>
+    <t>Bobov Dol power station_Unit 3</t>
+  </si>
+  <si>
+    <t>Deven power station_Unit 1</t>
+  </si>
+  <si>
+    <t>Maritsa 3 power station_--</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 3</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 4</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 5</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 6</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 7</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-2 power station_Unit 8</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-3 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-3 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-3 power station_Unit 3</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-3 power station_Unit 4</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-1 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>Maritsa Iztok-1 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>Republika power station_Unit 5</t>
+  </si>
+  <si>
+    <t>Ruse Iztok power station_Unit 3</t>
+  </si>
+  <si>
+    <t>Ruse Iztok power station_Unit 4</t>
+  </si>
+  <si>
+    <t>Sofia Iztok power station_1</t>
+  </si>
+  <si>
+    <t>Varna power station_Unit 6, timepoint 2</t>
+  </si>
+  <si>
+    <t>Varna power station_Unit 5, timepoint 2</t>
+  </si>
+  <si>
+    <t>Varna power station_Unit 4, timepoint 2</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap_Missing Hydro Capacity</t>
   </si>
   <si>
+    <t>Belmeken hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Ivailovgrad hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Kardjali hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Momina Klisura hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Orfeus hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Peshtera hydroelectric plant_</t>
+  </si>
+  <si>
+    <t>Sestrimo hydroelectric plant_</t>
+  </si>
+  <si>
     <t>STG</t>
   </si>
   <si>
     <t>Chaira hydroelectric plant_</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Kozloduy nuclear power plant_6</t>
   </si>
   <si>
@@ -199,6 +418,30 @@
     <t>annual</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
+    <t>Tenovo solar farm_--</t>
+  </si>
+  <si>
+    <t>Verila solar farm_--</t>
+  </si>
+  <si>
+    <t>Galabovo solar farm_--</t>
+  </si>
+  <si>
+    <t>Karlovo solar farm_--</t>
+  </si>
+  <si>
+    <t>Bobov Dol solar farm_--</t>
+  </si>
+  <si>
+    <t>Apriltsi solar farm_other phases</t>
+  </si>
+  <si>
+    <t>Saint Nikola wind farm_--</t>
+  </si>
+  <si>
     <t>~fi_t</t>
   </si>
   <si>
@@ -214,6 +457,72 @@
     <t>prc_refit</t>
   </si>
   <si>
+    <t>ep_coal_subcritical_G100000100971_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000100972_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000100973_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000102332_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106668__m_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106669_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106670_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106671_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106672_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106673_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106674_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106675_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106676_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106677_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106678_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106679_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106680_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106681_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000106682_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108557_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108666__m_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_coal_subcritical_G100000108667_ccs-rf</t>
+  </si>
+  <si>
     <t>ep_coal_subcritical__m_ccs-rf</t>
   </si>
   <si>
@@ -223,13 +532,100 @@
     <t>ep_gas_combined_cycle_ccs-rf</t>
   </si>
   <si>
-    <t>ep_gas_steam_turbine__m_ccs-rf</t>
+    <t>ep_gas_steam_turbine_G100000400048_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406325_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406326__m_ccs-rf</t>
+  </si>
+  <si>
+    <t>ep_gas_steam_turbine_G100000406327__m_ccs-rf</t>
   </si>
   <si>
     <t>ep_gas_steam_turbine_ccs-rf</t>
   </si>
   <si>
+    <t>ccs retrofit of -- Bobov Dol power station_Unit 1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Bobov Dol power station_Unit 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Bobov Dol power station_Unit 3</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Deven power station_Unit 1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa 3 power station_--</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 3</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 4</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 5</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 6</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 7</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-2 power station_Unit 8</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 3</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-3 power station_Unit 4</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-1 power station_Unit 1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Maritsa Iztok-1 power station_Unit 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Republika power station_Unit 5</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Ruse Iztok power station_Unit 3</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Ruse Iztok power station_Unit 4</t>
+  </si>
+  <si>
     <t>ccs retrofit of -- Aggregated Plant</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Sofia Iztok power station_1</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Varna power station_Unit 6, timepoint 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Varna power station_Unit 5, timepoint 2</t>
+  </si>
+  <si>
+    <t>ccs retrofit of -- Varna power station_Unit 4, timepoint 2</t>
   </si>
   <si>
     <t>attribute</t>
@@ -696,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC24AD10-A5B8-4A9D-8180-0BB1C448069D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909EB0E0-35C5-4386-BD8B-450BB3731DB9}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -705,10 +1101,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -731,33 +1127,33 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -778,27 +1174,27 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -816,30 +1212,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -860,27 +1256,27 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -901,27 +1297,27 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -939,30 +1335,30 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -983,27 +1379,27 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1021,30 +1417,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1065,27 +1461,27 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1106,27 +1502,27 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1144,30 +1540,30 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1188,27 +1584,27 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1226,30 +1622,30 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1270,27 +1666,27 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1311,27 +1707,27 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1349,30 +1745,30 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1393,27 +1789,27 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1431,30 +1827,30 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
         <v>85</v>
-      </c>
-      <c r="M20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1475,27 +1871,27 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N21" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1516,27 +1912,27 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1554,33 +1950,33 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1598,30 +1994,30 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N24" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1639,30 +2035,30 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1680,30 +2076,30 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1721,30 +2117,30 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1762,30 +2158,30 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1803,30 +2199,30 @@
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1846,10 +2242,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1869,10 +2265,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1892,7 +2288,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1915,7 +2311,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1938,7 +2334,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1961,10 +2357,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1984,10 +2380,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2002,15 +2398,15 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2030,10 +2426,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2053,10 +2449,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2071,15 +2467,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2099,10 +2495,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2122,10 +2518,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2145,10 +2541,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2168,10 +2564,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2191,10 +2587,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2214,10 +2610,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2237,10 +2633,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2255,15 +2651,15 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2283,10 +2679,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2306,10 +2702,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2324,15 +2720,15 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2352,10 +2748,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2370,15 +2766,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2398,10 +2794,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2421,10 +2817,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2439,15 +2835,15 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2467,10 +2863,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2485,15 +2881,15 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2513,10 +2909,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2536,10 +2932,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2554,15 +2950,15 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2582,10 +2978,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2605,10 +3001,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2628,7 +3024,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -2651,7 +3047,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -2674,7 +3070,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -2697,10 +3093,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2720,10 +3116,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2738,15 +3134,15 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -2766,10 +3162,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2789,10 +3185,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2807,15 +3203,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -2835,10 +3231,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2858,10 +3254,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -2881,7 +3277,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -2904,7 +3300,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -2927,7 +3323,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -2950,10 +3346,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -2973,10 +3369,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2991,15 +3387,15 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3019,10 +3415,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3042,10 +3438,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -3060,15 +3456,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -3088,10 +3484,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -3106,15 +3502,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -3134,10 +3530,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -3157,10 +3553,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -3175,12 +3571,12 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -3203,7 +3599,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -3226,7 +3622,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -3249,7 +3645,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -3272,7 +3668,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -3295,7 +3691,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -3318,7 +3714,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
@@ -3341,7 +3737,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -3364,7 +3760,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -3387,10 +3783,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3410,10 +3806,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3428,15 +3824,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -3456,10 +3852,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3479,10 +3875,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3497,15 +3893,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
@@ -3525,10 +3921,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3543,15 +3939,15 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3571,10 +3967,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -3594,10 +3990,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -3612,7 +4008,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +4017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47754E4F-9321-455D-B181-F702BFF3CB7A}">
-  <dimension ref="A2:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5569B3AB-5BFB-4BAA-A631-4DCEE790E9EA}">
+  <dimension ref="A2:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3630,10 +4026,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -3659,42 +4055,42 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -3703,19 +4099,19 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.10019840000000002</v>
+        <v>0.13348799999999997</v>
       </c>
       <c r="E4">
-        <v>3583</v>
+        <v>3144</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>43.8</v>
       </c>
       <c r="G4">
-        <v>4.59</v>
+        <v>3.94</v>
       </c>
       <c r="H4">
-        <v>0.5605</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -3727,30 +4123,30 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -3759,22 +4155,22 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.11272320000000002</v>
+        <v>0.13348799999999997</v>
       </c>
       <c r="E5">
-        <v>3583</v>
+        <v>3144</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>43.8</v>
       </c>
       <c r="G5">
-        <v>4.59</v>
+        <v>3.94</v>
       </c>
       <c r="H5">
-        <v>0.5605</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3783,54 +4179,54 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.13348799999999997</v>
+      </c>
+      <c r="E6">
+        <v>3144</v>
+      </c>
+      <c r="F6">
+        <v>43.8</v>
+      </c>
+      <c r="G6">
+        <v>3.94</v>
+      </c>
+      <c r="H6">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>0.50470000000000004</v>
-      </c>
-      <c r="E6">
-        <v>1365</v>
-      </c>
-      <c r="F6">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G6">
-        <v>3.75</v>
-      </c>
-      <c r="H6">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3839,54 +4235,54 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.31093124999999994</v>
+        <v>0.17299880000000001</v>
       </c>
       <c r="E7">
-        <v>1365</v>
+        <v>2757</v>
       </c>
       <c r="F7">
-        <v>34.200000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G7">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H7">
-        <v>0.84455000000000002</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3895,54 +4291,54 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.31093124999999994</v>
+        <v>0.133488</v>
       </c>
       <c r="E8">
-        <v>1365</v>
+        <v>3144</v>
       </c>
       <c r="F8">
-        <v>34.200000000000003</v>
+        <v>43.8</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="H8">
-        <v>0.84455000000000002</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3951,25 +4347,1425 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E9">
+        <v>3583</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>4.59</v>
+      </c>
+      <c r="H9">
+        <v>0.5605</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E10">
+        <v>3583</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>4.59</v>
+      </c>
+      <c r="H10">
+        <v>0.5605</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E11">
+        <v>3583</v>
+      </c>
+      <c r="F11">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>4.59</v>
+      </c>
+      <c r="H11">
+        <v>0.5605</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E12">
+        <v>3583</v>
+      </c>
+      <c r="F12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>4.59</v>
+      </c>
+      <c r="H12">
+        <v>0.5605</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.13765950000000002</v>
+      </c>
+      <c r="E13">
+        <v>3144</v>
+      </c>
+      <c r="F13">
+        <v>43.8</v>
+      </c>
+      <c r="G13">
+        <v>3.94</v>
+      </c>
+      <c r="H13">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.13765950000000002</v>
+      </c>
+      <c r="E14">
+        <v>3144</v>
+      </c>
+      <c r="F14">
+        <v>43.8</v>
+      </c>
+      <c r="G14">
+        <v>3.94</v>
+      </c>
+      <c r="H14">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0.13765950000000002</v>
+      </c>
+      <c r="E15">
+        <v>3144</v>
+      </c>
+      <c r="F15">
+        <v>43.8</v>
+      </c>
+      <c r="G15">
+        <v>3.94</v>
+      </c>
+      <c r="H15">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0.17299880000000001</v>
+      </c>
+      <c r="E16">
+        <v>2757</v>
+      </c>
+      <c r="F16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G16">
+        <v>3.35</v>
+      </c>
+      <c r="H16">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S16" t="s">
+        <v>84</v>
+      </c>
+      <c r="T16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0.133488</v>
+      </c>
+      <c r="E17">
+        <v>3144</v>
+      </c>
+      <c r="F17">
+        <v>43.8</v>
+      </c>
+      <c r="G17">
+        <v>3.94</v>
+      </c>
+      <c r="H17">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0.133488</v>
+      </c>
+      <c r="E18">
+        <v>3144</v>
+      </c>
+      <c r="F18">
+        <v>43.8</v>
+      </c>
+      <c r="G18">
+        <v>3.94</v>
+      </c>
+      <c r="H18">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0.133488</v>
+      </c>
+      <c r="E19">
+        <v>3144</v>
+      </c>
+      <c r="F19">
+        <v>43.8</v>
+      </c>
+      <c r="G19">
+        <v>3.94</v>
+      </c>
+      <c r="H19">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>82</v>
+      </c>
+      <c r="R19" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>0.13765950000000002</v>
+      </c>
+      <c r="E20">
+        <v>3144</v>
+      </c>
+      <c r="F20">
+        <v>43.8</v>
+      </c>
+      <c r="G20">
+        <v>3.94</v>
+      </c>
+      <c r="H20">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0.18317520000000001</v>
+      </c>
+      <c r="E21">
+        <v>2757</v>
+      </c>
+      <c r="F21">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G21">
+        <v>3.35</v>
+      </c>
+      <c r="H21">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0.18317520000000001</v>
+      </c>
+      <c r="E22">
+        <v>2757</v>
+      </c>
+      <c r="F22">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G22">
+        <v>3.35</v>
+      </c>
+      <c r="H22">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>82</v>
+      </c>
+      <c r="R22" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>8.7673600000000032E-2</v>
+      </c>
+      <c r="E23">
+        <v>3583</v>
+      </c>
+      <c r="F23">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>4.59</v>
+      </c>
+      <c r="H23">
+        <v>0.5605</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>82</v>
+      </c>
+      <c r="R23" t="s">
+        <v>83</v>
+      </c>
+      <c r="S23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E24">
+        <v>3583</v>
+      </c>
+      <c r="F24">
+        <v>49</v>
+      </c>
+      <c r="G24">
+        <v>4.59</v>
+      </c>
+      <c r="H24">
+        <v>0.5605</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>0.133488</v>
+      </c>
+      <c r="E25">
+        <v>3144</v>
+      </c>
+      <c r="F25">
+        <v>43.8</v>
+      </c>
+      <c r="G25">
+        <v>3.94</v>
+      </c>
+      <c r="H25">
+        <v>0.59565000000000001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>82</v>
+      </c>
+      <c r="R25" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" t="s">
+        <v>84</v>
+      </c>
+      <c r="T25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>9.3936000000000006E-2</v>
+      </c>
+      <c r="E26">
+        <v>3583</v>
+      </c>
+      <c r="F26">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>4.59</v>
+      </c>
+      <c r="H26">
+        <v>0.5605</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>82</v>
+      </c>
+      <c r="R26" t="s">
+        <v>83</v>
+      </c>
+      <c r="S26" t="s">
+        <v>84</v>
+      </c>
+      <c r="T26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>0.10646080000000004</v>
+      </c>
+      <c r="E27">
+        <v>3583</v>
+      </c>
+      <c r="F27">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <v>4.59</v>
+      </c>
+      <c r="H27">
+        <v>0.5605</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>82</v>
+      </c>
+      <c r="R27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" t="s">
+        <v>84</v>
+      </c>
+      <c r="T27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="E28">
+        <v>1365</v>
+      </c>
+      <c r="F28">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G28">
+        <v>3.75</v>
+      </c>
+      <c r="H28">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" t="s">
+        <v>84</v>
+      </c>
+      <c r="T28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0.27037500000000003</v>
+      </c>
+      <c r="E29">
+        <v>1365</v>
+      </c>
+      <c r="F29">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G29">
+        <v>3.75</v>
+      </c>
+      <c r="H29">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E30">
+        <v>1365</v>
+      </c>
+      <c r="F30">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G30">
+        <v>3.75</v>
+      </c>
+      <c r="H30">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>82</v>
+      </c>
+      <c r="R30" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" t="s">
+        <v>84</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E31">
+        <v>1365</v>
+      </c>
+      <c r="F31">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G31">
+        <v>3.75</v>
+      </c>
+      <c r="H31">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>82</v>
+      </c>
+      <c r="R31" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E32">
+        <v>1365</v>
+      </c>
+      <c r="F32">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G32">
+        <v>3.75</v>
+      </c>
+      <c r="H32">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>82</v>
+      </c>
+      <c r="R32" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" t="s">
+        <v>84</v>
+      </c>
+      <c r="T32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E33">
+        <v>1365</v>
+      </c>
+      <c r="F33">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G33">
+        <v>3.75</v>
+      </c>
+      <c r="H33">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I33" t="s">
         <v>40</v>
       </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" t="s">
-        <v>49</v>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" t="s">
+        <v>168</v>
+      </c>
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>82</v>
+      </c>
+      <c r="R33" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" t="s">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3978,8 +5774,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0AEF48-58C6-4651-9AA4-DC903D2673E3}">
-  <dimension ref="A2:S75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FB727E-D0A9-4D1A-9132-A703B784B87E}">
+  <dimension ref="A2:S88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3987,10 +5783,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4025,25 +5821,25 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4078,25 +5874,25 @@
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -4110,46 +5906,46 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="E5">
-        <v>0.105</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>0.28840000000000005</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="G5">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H5">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I5">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J5">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -4163,13 +5959,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>0.27810000000000001</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="G6">
         <v>2970.0000000000005</v>
@@ -4181,28 +5977,28 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="J6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -4216,10 +6012,10 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
         <v>0.29869999999999997</v>
@@ -4234,28 +6030,28 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="J7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -4269,10 +6065,10 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1962</v>
+        <v>1969</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <v>0.29869999999999997</v>
@@ -4287,28 +6083,28 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -4322,13 +6118,13 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>1966</v>
+        <v>1985</v>
       </c>
       <c r="E9">
-        <v>0.17699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F9">
-        <v>0.309</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G9">
         <v>2530</v>
@@ -4340,28 +6136,28 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J9">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -4375,13 +6171,13 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1967</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.34200000000000003</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>0.309</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="G10">
         <v>2530</v>
@@ -4390,31 +6186,31 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I10">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J10">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -4428,51 +6224,51 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1968</v>
+        <v>2022</v>
       </c>
       <c r="E11">
-        <v>0.17699999999999999</v>
+        <v>1.000000000000334E-3</v>
       </c>
       <c r="F11">
-        <v>0.309</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G11">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="H11">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="I11">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
         <v>87</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -4481,51 +6277,51 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="F12">
-        <v>0.29869999999999997</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="G12">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H12">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I12">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J12">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -4534,13 +6330,13 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="E13">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="F13">
-        <v>0.3296</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="G13">
         <v>2530</v>
@@ -4552,33 +6348,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J13">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -4587,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="E14">
         <v>0.21</v>
@@ -4605,33 +6401,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J14">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -4640,13 +6436,13 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1974</v>
+        <v>2009</v>
       </c>
       <c r="E15">
-        <v>0.21</v>
+        <v>0.121</v>
       </c>
       <c r="F15">
-        <v>0.32959999999999995</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="G15">
         <v>2530</v>
@@ -4658,33 +6454,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J15">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -4693,13 +6489,13 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="E16">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="F16">
-        <v>0.32959999999999995</v>
+        <v>0.3296</v>
       </c>
       <c r="G16">
         <v>2530</v>
@@ -4711,33 +6507,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="S16" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -4746,13 +6542,13 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="E17">
-        <v>0.22700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F17">
-        <v>0.3296</v>
+        <v>0.309</v>
       </c>
       <c r="G17">
         <v>2530</v>
@@ -4761,36 +6557,36 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I17">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J17">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -4799,13 +6595,13 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1979</v>
+        <v>1967</v>
       </c>
       <c r="E18">
-        <v>0.22700000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F18">
-        <v>0.3296</v>
+        <v>0.309</v>
       </c>
       <c r="G18">
         <v>2530</v>
@@ -4814,15 +6610,36 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I18">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J18">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -4831,13 +6648,13 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="E19">
-        <v>0.22700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F19">
-        <v>0.3296</v>
+        <v>0.309</v>
       </c>
       <c r="G19">
         <v>2530</v>
@@ -4846,15 +6663,36 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I19">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -4863,13 +6701,13 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="E20">
-        <v>0.22700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F20">
-        <v>0.33990000000000004</v>
+        <v>0.309</v>
       </c>
       <c r="G20">
         <v>2530</v>
@@ -4878,15 +6716,36 @@
         <v>72.600000000000009</v>
       </c>
       <c r="I20">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J20">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -4898,7 +6757,7 @@
         <v>1985</v>
       </c>
       <c r="E21">
-        <v>0.56200000000000006</v>
+        <v>0.21</v>
       </c>
       <c r="F21">
         <v>0.33990000000000004</v>
@@ -4915,10 +6774,31 @@
       <c r="J21">
         <v>70</v>
       </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -4927,7 +6807,7 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="E22">
         <v>0.23200000000000001</v>
@@ -4945,12 +6825,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J22">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -4959,13 +6860,13 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="E23">
         <v>0.23200000000000001</v>
       </c>
       <c r="F23">
-        <v>0.35020000000000001</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G23">
         <v>2530</v>
@@ -4977,12 +6878,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J23">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -4991,10 +6913,10 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="E24">
-        <v>0.121</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F24">
         <v>0.35020000000000001</v>
@@ -5009,12 +6931,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -5023,30 +6966,51 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>2011</v>
+        <v>1978</v>
       </c>
       <c r="E25">
-        <v>0.69</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F25">
-        <v>0.37080000000000002</v>
+        <v>0.3296</v>
       </c>
       <c r="G25">
-        <v>2200</v>
+        <v>2530</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I25">
-        <v>5.25</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -5055,13 +7019,13 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>2017</v>
+        <v>1979</v>
       </c>
       <c r="E26">
-        <v>5.2999999999999999E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F26">
-        <v>0.35020000000000001</v>
+        <v>0.3296</v>
       </c>
       <c r="G26">
         <v>2530</v>
@@ -5073,12 +7037,33 @@
         <v>5.7750000000000012</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -5087,30 +7072,51 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>2022</v>
+        <v>1980</v>
       </c>
       <c r="E27">
-        <v>1.000000000000334E-3</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F27">
-        <v>0.33990000000000004</v>
+        <v>0.3296</v>
       </c>
       <c r="G27">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H27">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I27">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J27">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -5119,30 +7125,51 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <v>1962</v>
+        <v>1981</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F28">
-        <v>0.29869999999999997</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="G28">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H28">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I28">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="J28">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -5151,30 +7178,51 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>1964</v>
+        <v>2011</v>
       </c>
       <c r="E29">
-        <v>0.06</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F29">
-        <v>0.29869999999999997</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="G29">
-        <v>2970.0000000000005</v>
+        <v>2200</v>
       </c>
       <c r="H29">
-        <v>85.800000000000011</v>
+        <v>66</v>
       </c>
       <c r="I29">
-        <v>6.3000000000000007</v>
+        <v>5.25</v>
       </c>
       <c r="J29">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" t="s">
+        <v>84</v>
+      </c>
+      <c r="S29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -5183,30 +7231,51 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1966</v>
+        <v>2011</v>
       </c>
       <c r="E30">
-        <v>0.11</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F30">
-        <v>0.309</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="G30">
-        <v>2530</v>
+        <v>2200</v>
       </c>
       <c r="H30">
-        <v>72.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="I30">
-        <v>5.7750000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="J30">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -5215,30 +7284,51 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>1969</v>
+        <v>1951</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.105</v>
       </c>
       <c r="F31">
-        <v>0.29869999999999997</v>
+        <v>0.28840000000000005</v>
       </c>
       <c r="G31">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="H31">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="I31">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="J31">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -5247,10 +7337,10 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="E32">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F32">
         <v>0.309</v>
@@ -5265,12 +7355,33 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="J32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32" t="s">
+        <v>84</v>
+      </c>
+      <c r="S32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -5282,7 +7393,7 @@
         <v>1971</v>
       </c>
       <c r="E33">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F33">
         <v>0.3296</v>
@@ -5299,313 +7410,523 @@
       <c r="J33">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
+        <v>1962</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
+        <v>0.29869999999999997</v>
+      </c>
+      <c r="G34">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="H34">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="I34">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J34">
+        <v>93</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1964</v>
+      </c>
+      <c r="E35">
+        <v>0.06</v>
+      </c>
+      <c r="F35">
+        <v>0.29869999999999997</v>
+      </c>
+      <c r="G35">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="H35">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="I35">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J35">
+        <v>91</v>
+      </c>
+      <c r="M35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1969</v>
+      </c>
+      <c r="E36">
+        <v>0.03</v>
+      </c>
+      <c r="F36">
+        <v>0.29869999999999997</v>
+      </c>
+      <c r="G36">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="H36">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="I36">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J36">
+        <v>86</v>
+      </c>
+      <c r="M36" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>1970</v>
+      </c>
+      <c r="E37">
+        <v>0.12</v>
+      </c>
+      <c r="F37">
+        <v>0.309</v>
+      </c>
+      <c r="G37">
+        <v>2530</v>
+      </c>
+      <c r="H37">
+        <v>72.600000000000009</v>
+      </c>
+      <c r="I37">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="J37">
+        <v>85</v>
+      </c>
+      <c r="M37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
         <v>2007</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>0.51500000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <v>1485.0000000000002</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>42.900000000000006</v>
       </c>
-      <c r="I34">
+      <c r="I38">
         <v>3.78</v>
       </c>
-      <c r="J34">
+      <c r="J38">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35">
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>83</v>
+      </c>
+      <c r="R38" t="s">
+        <v>84</v>
+      </c>
+      <c r="S38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
         <v>2011</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>0.05</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>0.55620000000000003</v>
       </c>
-      <c r="G35">
+      <c r="G39">
         <v>1485.0000000000002</v>
       </c>
-      <c r="H35">
+      <c r="H39">
         <v>42.900000000000006</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>3.78</v>
       </c>
-      <c r="J35">
+      <c r="J39">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
+      <c r="M39" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R39" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
         <v>2022</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>1.8999999999999909E-2</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>0.57680000000000009</v>
       </c>
-      <c r="G36">
+      <c r="G40">
         <v>1485.0000000000002</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>42.900000000000006</v>
       </c>
-      <c r="I36">
+      <c r="I40">
         <v>3.7800000000000002</v>
       </c>
-      <c r="J36">
+      <c r="J40">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
+      <c r="M40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>83</v>
+      </c>
+      <c r="R40" t="s">
+        <v>84</v>
+      </c>
+      <c r="S40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
         <v>1962</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>0.29869999999999997</v>
       </c>
-      <c r="G37">
+      <c r="G41">
         <v>1782.0000000000005</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>57.2</v>
       </c>
-      <c r="I37">
+      <c r="I41">
         <v>5.67</v>
       </c>
-      <c r="J37">
+      <c r="J41">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>1964</v>
-      </c>
-      <c r="E38">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F38">
-        <v>0.309</v>
-      </c>
-      <c r="G38">
-        <v>1518.0000000000002</v>
-      </c>
-      <c r="H38">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I38">
-        <v>5.1975000000000007</v>
-      </c>
-      <c r="J38">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" t="s">
+        <v>84</v>
+      </c>
+      <c r="S41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
         <v>1976</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.31930000000000003</v>
-      </c>
-      <c r="G39">
-        <v>1518.0000000000002</v>
-      </c>
-      <c r="H39">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I39">
-        <v>5.1975000000000007</v>
-      </c>
-      <c r="J39">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>1977</v>
-      </c>
-      <c r="E40">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.31930000000000003</v>
-      </c>
-      <c r="G40">
-        <v>1518.0000000000002</v>
-      </c>
-      <c r="H40">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I40">
-        <v>5.1975000000000007</v>
-      </c>
-      <c r="J40">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>1978</v>
-      </c>
-      <c r="E41">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F41">
-        <v>0.31930000000000003</v>
-      </c>
-      <c r="G41">
-        <v>1518.0000000000002</v>
-      </c>
-      <c r="H41">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I41">
-        <v>5.1975000000000007</v>
-      </c>
-      <c r="J41">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>1985</v>
-      </c>
-      <c r="E42">
-        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F42">
         <v>0.31930000000000003</v>
       </c>
       <c r="G42">
-        <v>1782.0000000000002</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="H42">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I42">
-        <v>5.67</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="J42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="M42" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>83</v>
+      </c>
+      <c r="R42" t="s">
+        <v>84</v>
+      </c>
+      <c r="S42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>2019</v>
+        <v>1977</v>
       </c>
       <c r="E43">
-        <v>0.21</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F43">
-        <v>0.35534999999999994</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="G43">
         <v>1518.0000000000002</v>
@@ -5617,27 +7938,48 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="J43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="M43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>83</v>
+      </c>
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+      <c r="S43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>2019</v>
+        <v>1978</v>
       </c>
       <c r="E44">
-        <v>0.42</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F44">
-        <v>0.35534999999999994</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="G44">
         <v>1518.0000000000002</v>
@@ -5649,216 +7991,363 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="J44">
+        <v>77</v>
+      </c>
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>83</v>
+      </c>
+      <c r="R44" t="s">
+        <v>84</v>
+      </c>
+      <c r="S44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>1985</v>
+      </c>
+      <c r="E45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.31930000000000003</v>
+      </c>
+      <c r="G45">
+        <v>1782.0000000000002</v>
+      </c>
+      <c r="H45">
+        <v>57.2</v>
+      </c>
+      <c r="I45">
+        <v>5.67</v>
+      </c>
+      <c r="J45">
+        <v>70</v>
+      </c>
+      <c r="M45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+      <c r="S45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1964</v>
+      </c>
+      <c r="E46">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.309</v>
+      </c>
+      <c r="G46">
+        <v>1518.0000000000002</v>
+      </c>
+      <c r="H46">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I46">
+        <v>5.1975000000000007</v>
+      </c>
+      <c r="J46">
+        <v>91</v>
+      </c>
+      <c r="M46" t="s">
+        <v>80</v>
+      </c>
+      <c r="N46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>2019</v>
+      </c>
+      <c r="E47">
+        <v>0.21</v>
+      </c>
+      <c r="F47">
+        <v>0.35534999999999994</v>
+      </c>
+      <c r="G47">
+        <v>1518.0000000000002</v>
+      </c>
+      <c r="H47">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I47">
+        <v>5.1975000000000007</v>
+      </c>
+      <c r="J47">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
+      <c r="M47" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>83</v>
+      </c>
+      <c r="R47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>2019</v>
+      </c>
+      <c r="E48">
+        <v>0.21</v>
+      </c>
+      <c r="F48">
+        <v>0.35534999999999994</v>
+      </c>
+      <c r="G48">
+        <v>1518.0000000000002</v>
+      </c>
+      <c r="H48">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I48">
+        <v>5.1975000000000007</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="M48" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" t="s">
+        <v>60</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R48" t="s">
+        <v>125</v>
+      </c>
+      <c r="S48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2019</v>
+      </c>
+      <c r="E49">
+        <v>0.21</v>
+      </c>
+      <c r="F49">
+        <v>0.35534999999999994</v>
+      </c>
+      <c r="G49">
+        <v>1518.0000000000002</v>
+      </c>
+      <c r="H49">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I49">
+        <v>5.1975000000000007</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="M49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" t="s">
+        <v>63</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" t="s">
+        <v>125</v>
+      </c>
+      <c r="S49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
         <v>1958</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>3162.5000000000005</v>
-      </c>
-      <c r="H45">
-        <v>60.500000000000014</v>
-      </c>
-      <c r="I45">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>1959</v>
-      </c>
-      <c r="E46">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>3162.5000000000005</v>
-      </c>
-      <c r="H46">
-        <v>60.500000000000014</v>
-      </c>
-      <c r="I46">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>1963</v>
-      </c>
-      <c r="E47">
-        <v>0.11</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>3162.5000000000005</v>
-      </c>
-      <c r="H47">
-        <v>60.500000000000014</v>
-      </c>
-      <c r="I47">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>1964</v>
-      </c>
-      <c r="E48">
-        <v>0.114</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>3162.5000000000005</v>
-      </c>
-      <c r="H48">
-        <v>60.500000000000014</v>
-      </c>
-      <c r="I48">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>1972</v>
-      </c>
-      <c r="E49">
-        <v>0.08</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>3162.5000000000005</v>
-      </c>
-      <c r="H49">
-        <v>60.500000000000014</v>
-      </c>
-      <c r="I49">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50">
-        <v>1974</v>
-      </c>
-      <c r="E50">
-        <v>0.61499999999999999</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>2910.9756097560976</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H50">
-        <v>57.146341463414643</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I50">
-        <v>2.1819512195121953</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>83</v>
+      </c>
+      <c r="R50" t="s">
+        <v>125</v>
+      </c>
+      <c r="S50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="E51">
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5875,13 +8364,34 @@
       <c r="J51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M51" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>83</v>
+      </c>
+      <c r="R51" t="s">
+        <v>125</v>
+      </c>
+      <c r="S51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -5907,13 +8417,34 @@
       <c r="J52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M52" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>83</v>
+      </c>
+      <c r="R52" t="s">
+        <v>125</v>
+      </c>
+      <c r="S52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -5939,709 +8470,1230 @@
       <c r="J53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>83</v>
+      </c>
+      <c r="R53" t="s">
+        <v>125</v>
+      </c>
+      <c r="S53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="E54">
-        <v>0.86399999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>1980.0000000000002</v>
+        <v>2750</v>
       </c>
       <c r="H54">
-        <v>44</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="I54">
-        <v>1.5750000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M54" t="s">
+        <v>80</v>
+      </c>
+      <c r="N54" t="s">
+        <v>68</v>
+      </c>
+      <c r="O54" t="s">
+        <v>131</v>
+      </c>
+      <c r="P54" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>83</v>
+      </c>
+      <c r="R54" t="s">
+        <v>125</v>
+      </c>
+      <c r="S54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>1984</v>
+        <v>1964</v>
       </c>
       <c r="E55">
-        <v>0.14799999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>2783</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H55">
-        <v>66.550000000000011</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I55">
-        <v>2.8875000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N55" t="s">
+        <v>69</v>
+      </c>
+      <c r="O55" t="s">
+        <v>132</v>
+      </c>
+      <c r="P55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" t="s">
+        <v>125</v>
+      </c>
+      <c r="S55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>2015</v>
+        <v>1963</v>
       </c>
       <c r="E56">
-        <v>7.0999999999999994E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2783</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H56">
-        <v>66.550000000000011</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I56">
-        <v>2.8875000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M56" t="s">
+        <v>80</v>
+      </c>
+      <c r="N56" t="s">
+        <v>70</v>
+      </c>
+      <c r="O56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R56" t="s">
+        <v>125</v>
+      </c>
+      <c r="S56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>1993</v>
+        <v>1975</v>
       </c>
       <c r="E57">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>7150.0000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H57">
-        <v>165</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I57">
-        <v>4.2</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J57">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="M57" t="s">
+        <v>80</v>
+      </c>
+      <c r="N57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>83</v>
+      </c>
+      <c r="R57" t="s">
+        <v>125</v>
+      </c>
+      <c r="S57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="E58">
-        <v>1.04</v>
+        <v>0.16</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>7150.0000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H58">
-        <v>165</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I58">
-        <v>4.2</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J58">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>2010</v>
+        <v>1959</v>
       </c>
       <c r="E59">
-        <v>4.7999999999999996E-3</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>1336.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H59">
-        <v>21.450000000000003</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J59">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>2011</v>
+        <v>1974</v>
       </c>
       <c r="E60">
-        <v>4.0799999999999996E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>1336.5</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="H60">
-        <v>21.450000000000003</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J60">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="E61">
-        <v>0.34</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>1271.8588235294117</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H61">
-        <v>20.372647058823539</v>
+        <v>44</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="J61">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="E62">
-        <v>2.12E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>1336.5</v>
+        <v>2783</v>
       </c>
       <c r="H62">
-        <v>21.450000000000003</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>2015</v>
       </c>
       <c r="E63">
-        <v>0.88529999999999998</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1336.4999999999995</v>
+        <v>2783</v>
       </c>
       <c r="H63">
-        <v>21.449999999999989</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="J63">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>2019</v>
+        <v>1993</v>
       </c>
       <c r="E64">
-        <v>2.5999999999999999E-2</v>
+        <v>1.04</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>1336.5</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H64">
-        <v>21.450000000000003</v>
+        <v>165</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J64">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>2021</v>
+        <v>1988</v>
       </c>
       <c r="E65">
-        <v>7.4999999999999997E-2</v>
+        <v>1.04</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1186.02</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="H65">
-        <v>18.942</v>
+        <v>165</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J65">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="E66">
-        <v>0.34343700000000005</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1147.1478742826196</v>
+        <v>1336.5</v>
       </c>
       <c r="H66">
-        <v>18.294131238043661</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D67">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="E67">
-        <v>0.32500000000000001</v>
+        <v>4.0799999999999996E-2</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H67">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D68">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="E68">
-        <v>0.53200000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1169.390977443609</v>
+        <v>1271.8588235294117</v>
       </c>
       <c r="H68">
-        <v>18.664849624060157</v>
+        <v>20.372647058823539</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D69">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="E69">
-        <v>0.33800000000000002</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H69">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D70">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E70">
-        <v>4.4999999999999998E-2</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>2376</v>
+        <v>1336.4999999999995</v>
       </c>
       <c r="H70">
-        <v>57.2</v>
+        <v>21.449999999999989</v>
       </c>
       <c r="I70">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D71">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="E71">
-        <v>3.6999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>2376</v>
+        <v>1336.5</v>
       </c>
       <c r="H71">
-        <v>57.2</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I71">
-        <v>2.5200000000000005</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E72">
-        <v>0.32500000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>2207.04</v>
+        <v>1186.02</v>
       </c>
       <c r="H72">
-        <v>52.975999999999999</v>
+        <v>18.942</v>
       </c>
       <c r="I72">
-        <v>2.4192</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D73">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="E73">
-        <v>0.14699999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>2232.3265306122448</v>
+        <v>1155.5689655172414</v>
       </c>
       <c r="H73">
-        <v>53.608163265306118</v>
+        <v>18.434482758620693</v>
       </c>
       <c r="I73">
-        <v>2.4342857142857146</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D74">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="E74">
-        <v>5.3999999999999999E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>2376</v>
+        <v>1232.4085714285713</v>
       </c>
       <c r="H74">
-        <v>57.2</v>
+        <v>19.715142857142862</v>
       </c>
       <c r="I74">
-        <v>2.5199999999999996</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <v>2022</v>
       </c>
       <c r="E75">
-        <v>9.6310000000000007E-2</v>
+        <v>0.16943700000000006</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>2024</v>
+        <v>1138.5</v>
       </c>
       <c r="H75">
-        <v>48.400000000000006</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I75">
-        <v>2.3100000000000005</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1138.5</v>
+      </c>
+      <c r="H76">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>2023</v>
+      </c>
+      <c r="E77">
+        <v>0.124</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1138.5</v>
+      </c>
+      <c r="H77">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78">
+        <v>2023</v>
+      </c>
+      <c r="E78">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1138.5</v>
+      </c>
+      <c r="H78">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79">
+        <v>2024</v>
+      </c>
+      <c r="E79">
+        <v>0.107</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1138.5</v>
+      </c>
+      <c r="H79">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80">
+        <v>0.1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1138.5</v>
+      </c>
+      <c r="H80">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>2024</v>
+      </c>
+      <c r="E81">
+        <v>0.25</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1138.5</v>
+      </c>
+      <c r="H81">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82">
+        <v>2008</v>
+      </c>
+      <c r="E82">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2376</v>
+      </c>
+      <c r="H82">
+        <v>57.2</v>
+      </c>
+      <c r="I82">
+        <v>2.52</v>
+      </c>
+      <c r="J82">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83">
+        <v>2009</v>
+      </c>
+      <c r="E83">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>2376</v>
+      </c>
+      <c r="H83">
+        <v>57.2</v>
+      </c>
+      <c r="I83">
+        <v>2.5200000000000005</v>
+      </c>
+      <c r="J83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84">
+        <v>2010</v>
+      </c>
+      <c r="E84">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>2376</v>
+      </c>
+      <c r="H84">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I84">
+        <v>2.52</v>
+      </c>
+      <c r="J84">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85">
+        <v>2011</v>
+      </c>
+      <c r="E85">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>2232.3265306122448</v>
+      </c>
+      <c r="H85">
+        <v>53.608163265306118</v>
+      </c>
+      <c r="I85">
+        <v>2.4342857142857146</v>
+      </c>
+      <c r="J85">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86">
+        <v>2012</v>
+      </c>
+      <c r="E86">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>2376</v>
+      </c>
+      <c r="H86">
+        <v>57.2</v>
+      </c>
+      <c r="I86">
+        <v>2.5199999999999996</v>
+      </c>
+      <c r="J86">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87">
+        <v>9.6310000000000007E-2</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>2024</v>
+      </c>
+      <c r="H87">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I87">
+        <v>2.3100000000000005</v>
+      </c>
+      <c r="J87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88">
+        <v>2010</v>
+      </c>
+      <c r="E88">
+        <v>0.156</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>2024</v>
+      </c>
+      <c r="H88">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I88">
+        <v>2.3100000000000005</v>
+      </c>
+      <c r="J88">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9880620C-4A4B-410B-84A7-A43EC3A8D09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A902E3-CCB2-4F6F-B02C-AB4800CA9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2DF58098-20FE-4923-8474-A9AB2439909D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D119F29B-7A77-4981-B51D-F169D53AD7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -740,8 +740,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -753,15 +754,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -837,12 +837,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F6B09F-2C1B-4876-B7FB-200D6A68F837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1402CC-EEC1-46B3-A8E4-2FF316973A60}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1185,15 +1185,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" customWidth="1"/>
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1226,7 +1224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>198</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>198</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>198</v>
       </c>
@@ -1438,7 +1436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
@@ -1480,7 +1478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>201</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>201</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>201</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>201</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>201</v>
       </c>
@@ -1690,7 +1688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -1732,7 +1730,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>202</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>202</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>202</v>
       </c>
@@ -1858,7 +1856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>203</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>203</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>203</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>203</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>204</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>204</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>204</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>205</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>205</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>205</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>206</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>206</v>
       </c>
@@ -2408,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>206</v>
       </c>
@@ -2431,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>207</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>207</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>207</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>208</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>208</v>
       </c>
@@ -2546,7 +2544,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>208</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>208</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>208</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>209</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>209</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>209</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>211</v>
       </c>
@@ -2707,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>211</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>211</v>
       </c>
@@ -2753,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>212</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>212</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>212</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>212</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>212</v>
       </c>
@@ -2868,7 +2866,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>214</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>214</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>214</v>
       </c>
@@ -2937,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>214</v>
       </c>
@@ -2960,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>214</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>215</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>215</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>215</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>215</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>215</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>216</v>
       </c>
@@ -3121,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>216</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>216</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>217</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>217</v>
       </c>
@@ -3213,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>217</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>218</v>
       </c>
@@ -3259,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>218</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>218</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>218</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>218</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>220</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>220</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>220</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>221</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>221</v>
       </c>
@@ -3466,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>221</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>222</v>
       </c>
@@ -3512,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>222</v>
       </c>
@@ -3535,7 +3533,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>222</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>222</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>222</v>
       </c>
@@ -3604,7 +3602,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>223</v>
       </c>
@@ -3627,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>223</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>223</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>223</v>
       </c>
@@ -3696,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>223</v>
       </c>
@@ -3719,7 +3717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>224</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>224</v>
       </c>
@@ -3765,7 +3763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>224</v>
       </c>
@@ -3788,7 +3786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>225</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3834,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>225</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>226</v>
       </c>
@@ -3880,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>226</v>
       </c>
@@ -3903,7 +3901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>226</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>227</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>227</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>227</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>227</v>
       </c>
@@ -4018,7 +4016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>227</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>228</v>
       </c>
@@ -4064,7 +4062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>228</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>228</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>228</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>228</v>
       </c>
@@ -4165,7 +4163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA4E157-0534-472F-AAF0-0F11530E0755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13950627-7F6D-4692-A90E-E5F9B8F4A92B}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4173,17 +4171,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="30.59765625" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
     <col min="16" max="17" width="30.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4220,7 +4215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
@@ -4332,7 +4327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>141</v>
       </c>
@@ -4388,7 +4383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>142</v>
       </c>
@@ -4444,7 +4439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
@@ -4500,7 +4495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
@@ -4556,7 +4551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>145</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>147</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -4892,7 +4887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>151</v>
       </c>
@@ -4948,7 +4943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>152</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>153</v>
       </c>
@@ -5060,7 +5055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>154</v>
       </c>
@@ -5116,7 +5111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>155</v>
       </c>
@@ -5172,7 +5167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
@@ -5228,7 +5223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -5284,7 +5279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>158</v>
       </c>
@@ -5340,7 +5335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>159</v>
       </c>
@@ -5396,7 +5391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
@@ -5452,7 +5447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>161</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
@@ -5564,7 +5559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>163</v>
       </c>
@@ -5620,7 +5615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>164</v>
       </c>
@@ -5676,7 +5671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>165</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -5788,7 +5783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -5844,7 +5839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>168</v>
       </c>
@@ -5900,7 +5895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
@@ -5965,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68630704-B313-4652-B37C-B6B550ECDCFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7CEB9-7814-45F9-B26A-6ACB2ADE55F2}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5973,18 +5968,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="2" max="10" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="10.59765625" customWidth="1"/>
     <col min="15" max="16" width="30.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6020,7 +6009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6073,7 +6062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -6126,7 +6115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -6179,7 +6168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6232,7 +6221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6285,7 +6274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6338,7 +6327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -6391,7 +6380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6444,7 +6433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6497,7 +6486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -6550,7 +6539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -6603,7 +6592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -6656,7 +6645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -6709,7 +6698,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -6762,7 +6751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -6815,7 +6804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -6868,7 +6857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -6921,7 +6910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -6974,7 +6963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -7027,7 +7016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -7080,7 +7069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7133,7 +7122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -7186,7 +7175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -7239,7 +7228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -7292,7 +7281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -7345,7 +7334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -7398,7 +7387,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -7451,7 +7440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -7504,7 +7493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -7557,7 +7546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -7610,7 +7599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -7663,7 +7652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -7716,7 +7705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -7769,7 +7758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -7822,7 +7811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -7875,7 +7864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -7928,7 +7917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -7981,7 +7970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -8034,7 +8023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -8087,7 +8076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -8140,7 +8129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -8193,7 +8182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
@@ -8246,7 +8235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -8299,7 +8288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -8352,7 +8341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -8405,7 +8394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -8458,7 +8447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -8511,7 +8500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -8564,7 +8553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -8617,7 +8606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -8670,7 +8659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -8723,7 +8712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>49</v>
       </c>
@@ -8776,7 +8765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -8829,7 +8818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
@@ -8882,7 +8871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
@@ -8935,7 +8924,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
@@ -8967,7 +8956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
@@ -8999,7 +8988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
@@ -9031,7 +9020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
@@ -9063,7 +9052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
@@ -9095,7 +9084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>57</v>
       </c>
@@ -9127,7 +9116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -9159,7 +9148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
@@ -9191,7 +9180,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
@@ -9223,7 +9212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>61</v>
       </c>
@@ -9255,7 +9244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>61</v>
       </c>
@@ -9287,7 +9276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -9319,7 +9308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
@@ -9351,7 +9340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>61</v>
       </c>
@@ -9383,7 +9372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
@@ -9415,7 +9404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>61</v>
       </c>
@@ -9447,7 +9436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>61</v>
       </c>
@@ -9479,7 +9468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9511,7 +9500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
@@ -9543,7 +9532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
@@ -9575,7 +9564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
@@ -9607,7 +9596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>68</v>
       </c>
@@ -9639,7 +9628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>69</v>
       </c>
@@ -9671,7 +9660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>70</v>
       </c>
@@ -9703,7 +9692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>71</v>
       </c>
@@ -9735,7 +9724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>71</v>
       </c>
@@ -9767,7 +9756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>71</v>
       </c>
@@ -9799,7 +9788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>71</v>
       </c>
@@ -9831,7 +9820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>71</v>
       </c>
@@ -9863,7 +9852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>71</v>
       </c>
@@ -9895,7 +9884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>74</v>
       </c>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A902E3-CCB2-4F6F-B02C-AB4800CA9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38ABF30-5522-4095-9D5D-73CFA8A8B593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D119F29B-7A77-4981-B51D-F169D53AD7F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{882DD06A-8729-4F07-B403-A19FB9646FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1402CC-EEC1-46B3-A8E4-2FF316973A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BB731-EFC2-40FE-9C70-B5DD7F0F10E0}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4163,7 +4163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13950627-7F6D-4692-A90E-E5F9B8F4A92B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317BF8C1-EF7B-4CBC-B3FD-F85C9F2B640A}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5960,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7CEB9-7814-45F9-B26A-6ACB2ADE55F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2BA06-3CDA-4112-9431-51734D85BA1C}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38ABF30-5522-4095-9D5D-73CFA8A8B593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA1DB90-1DC3-4685-AD4A-7C8A68461DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{882DD06A-8729-4F07-B403-A19FB9646FD6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CE97176D-A406-4451-8572-0BF0A1030E2E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="229">
   <si>
     <t>~fi_t</t>
   </si>
@@ -229,7 +229,7 @@
     <t>solar</t>
   </si>
   <si>
-    <t>ELC_Sol-BGR</t>
+    <t>elc_sol-BGR</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
@@ -259,7 +259,7 @@
     <t>wind</t>
   </si>
   <si>
-    <t>ELC_Win-BGR</t>
+    <t>elc_win-BGR</t>
   </si>
   <si>
     <t>ep_wind_onshore_G100000919655</t>
@@ -740,8 +740,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -750,12 +756,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -837,12 +837,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BB731-EFC2-40FE-9C70-B5DD7F0F10E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E6A58-9159-40E4-BDC4-F16489A00812}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4163,8 +4163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317BF8C1-EF7B-4CBC-B3FD-F85C9F2B640A}">
-  <dimension ref="A1:U33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0A816-56BC-4781-8C2A-253398568672}">
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -5570,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4">
-        <v>0.10646080000000004</v>
+        <v>9.3936000000000006E-2</v>
       </c>
       <c r="E27" s="4">
         <v>3583</v>
@@ -5585,7 +5585,7 @@
         <v>0.5605</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -5617,31 +5617,31 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="3">
-        <v>0.50470000000000004</v>
+        <v>9.3936000000000006E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F28" s="3">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G28" s="3">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H28" s="3">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
@@ -5673,31 +5673,31 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="4">
-        <v>0.27037500000000003</v>
+        <v>9.3936000000000006E-2</v>
       </c>
       <c r="E29" s="4">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F29" s="4">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G29" s="4">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H29" s="4">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -5729,31 +5729,31 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3">
-        <v>0.31093124999999994</v>
+        <v>0.10646080000000004</v>
       </c>
       <c r="E30" s="3">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F30" s="3">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G30" s="3">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H30" s="3">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -5785,31 +5785,31 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="4">
-        <v>0.31093124999999994</v>
+        <v>0.10646080000000004</v>
       </c>
       <c r="E31" s="4">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F31" s="4">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G31" s="4">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H31" s="4">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -5841,31 +5841,31 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3">
-        <v>0.31093124999999994</v>
+        <v>0.10646080000000004</v>
       </c>
       <c r="E32" s="3">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F32" s="3">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G32" s="3">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H32" s="3">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -5897,31 +5897,31 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="4">
-        <v>0.27938750000000001</v>
+        <v>0.10646080000000004</v>
       </c>
       <c r="E33" s="4">
-        <v>1365</v>
+        <v>3583</v>
       </c>
       <c r="F33" s="4">
-        <v>34.200000000000003</v>
+        <v>49</v>
       </c>
       <c r="G33" s="4">
-        <v>3.75</v>
+        <v>4.59</v>
       </c>
       <c r="H33" s="4">
-        <v>0.84455000000000002</v>
+        <v>0.5605</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -5949,6 +5949,531 @@
       </c>
       <c r="U33" s="4" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.10646080000000004</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3583</v>
+      </c>
+      <c r="F34" s="3">
+        <v>49</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.5605</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.10646080000000004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3583</v>
+      </c>
+      <c r="F35" s="4">
+        <v>49</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4.59</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5605</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.10646080000000004</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3583</v>
+      </c>
+      <c r="F36" s="3">
+        <v>49</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.5605</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F37" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F38" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F39" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.27037500000000003</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F40" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F41" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G41" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F42" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.31093124999999994</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F43" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F44" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F45" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F46" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F47" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.27938750000000001</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F48" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5960,7 +6485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2BA06-3CDA-4112-9431-51734D85BA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C904BE83-04EB-4C28-95B9-689DE82FD772}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA1DB90-1DC3-4685-AD4A-7C8A68461DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF7D6A-DCCA-4C70-9DB0-AFBC9F586FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CE97176D-A406-4451-8572-0BF0A1030E2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D4E1226B-30D9-4C9F-B647-3A139045D832}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <t>ep_wind_onshore_G100000919655</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>VERVESTACKS: Energy modeling reimagined · Hourly simulation for any planned mix</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -859,6 +859,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D6CEA9-47C4-0E10-ADB8-1B9706EF3316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938BA624-106D-BD26-5F11-B4AB1C0A714E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12369800" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867A41AA-080C-C7C6-7F3B-1FA3040ED5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E6A58-9159-40E4-BDC4-F16489A00812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3184EA0-58FD-4B30-BBE5-82D19875AE8D}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1195,7 +1360,7 @@
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1213,8 +1378,6 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -4156,14 +4319,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0A816-56BC-4781-8C2A-253398568672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34939D6D-70C6-44BB-9893-9434987180BC}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4182,7 +4346,7 @@
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -4204,8 +4368,6 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -6478,14 +6640,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C904BE83-04EB-4C28-95B9-689DE82FD772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AF2AA2-5EE0-4927-9826-41A15C661BFF}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6502,7 +6665,7 @@
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -6523,8 +6686,6 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -10443,8 +10604,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF7D6A-DCCA-4C70-9DB0-AFBC9F586FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63739221-76C0-4A1B-A943-DBE1C32CFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D4E1226B-30D9-4C9F-B647-3A139045D832}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5B02938A-8CA8-4196-B4FC-CF4D1CDEA7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <t>ep_wind_onshore_G100000919655</t>
   </si>
   <si>
-    <t>VERVESTACKS: Energy modeling reimagined · Hourly simulation for any planned mix</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D6CEA9-47C4-0E10-ADB8-1B9706EF3316}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB07722-EFE8-A70E-2A20-AC0CCFAB4300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938BA624-106D-BD26-5F11-B4AB1C0A714E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F151020-A17F-21C2-FEBF-B3CFB16FC67C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867A41AA-080C-C7C6-7F3B-1FA3040ED5B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C46A5-E850-68DB-6D5B-3D27E55BC781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3184EA0-58FD-4B30-BBE5-82D19875AE8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FDF7E-D941-4237-A99D-7F877AD97FB9}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34939D6D-70C6-44BB-9893-9434987180BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E804C3-03F6-4F4D-A39C-10FD6760B33C}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AF2AA2-5EE0-4927-9826-41A15C661BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E27ED78-60C6-4FF3-A794-A2B211E8E751}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63739221-76C0-4A1B-A943-DBE1C32CFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DEB03A-E247-4C7A-B713-FE8B86F5769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5B02938A-8CA8-4196-B4FC-CF4D1CDEA7B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE982291-D3E9-4BE0-B3FB-9794A5227EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB07722-EFE8-A70E-2A20-AC0CCFAB4300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940911D9-79AE-EAAA-B226-977A06E3CA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F151020-A17F-21C2-FEBF-B3CFB16FC67C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C34D727-4096-BC11-FDF6-8F92EEF23A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C46A5-E850-68DB-6D5B-3D27E55BC781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7501F473-5A58-FEE7-0210-ABAEE7C61C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120FDF7E-D941-4237-A99D-7F877AD97FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E59CB6-2BD3-496A-8B87-2497A086ABF7}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E804C3-03F6-4F4D-A39C-10FD6760B33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473AF1-FCB3-419F-ABB8-1DD0E516D064}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E27ED78-60C6-4FF3-A794-A2B211E8E751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1BE49B-C6D0-4FF4-B8CF-DBB590AD5CC9}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DEB03A-E247-4C7A-B713-FE8B86F5769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FDB574-3F72-45C2-ABC0-DACD9435BCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE982291-D3E9-4BE0-B3FB-9794A5227EA6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D829F4C8-7521-4417-A4A9-E4000B55D77A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940911D9-79AE-EAAA-B226-977A06E3CA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A22A151-6702-A42A-EBA4-B164A074039E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C34D727-4096-BC11-FDF6-8F92EEF23A92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9036A496-51C0-3FC8-BE8E-4D6566A4CC94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7501F473-5A58-FEE7-0210-ABAEE7C61C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288E29C7-CE3F-E001-7A11-B6251A5C6039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E59CB6-2BD3-496A-8B87-2497A086ABF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068F41D-3F09-4005-92D4-A5E85886B7E8}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08473AF1-FCB3-419F-ABB8-1DD0E516D064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F631E3B-5410-423F-B88F-3DE3E2242BCA}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1BE49B-C6D0-4FF4-B8CF-DBB590AD5CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974FE1B8-E9F9-4399-AA67-CBB8F83F1C29}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FDB574-3F72-45C2-ABC0-DACD9435BCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A83FF57-86BD-4FB4-A434-BDB660447723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D829F4C8-7521-4417-A4A9-E4000B55D77A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{63E47308-DA2E-48EC-A94D-C47BF10221CD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A22A151-6702-A42A-EBA4-B164A074039E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD2249C-8DE2-7F32-273F-A4671BA61ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9036A496-51C0-3FC8-BE8E-4D6566A4CC94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94E3212-34CB-B340-44A3-BF5D68CFFFBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288E29C7-CE3F-E001-7A11-B6251A5C6039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD294612-0612-32AF-9EA5-A6264113F9CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068F41D-3F09-4005-92D4-A5E85886B7E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24043A34-E0A0-4AC5-BCBC-20FA85417777}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F631E3B-5410-423F-B88F-3DE3E2242BCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F332FC-DC49-45F7-95A6-31C42E896D7F}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974FE1B8-E9F9-4399-AA67-CBB8F83F1C29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA8C90-FEA3-4594-90DA-6BFC4116DFBA}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A83FF57-86BD-4FB4-A434-BDB660447723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57686D72-F53D-4B88-B87F-752582557043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{63E47308-DA2E-48EC-A94D-C47BF10221CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F004FC76-7E11-4B73-A816-409094722808}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD2249C-8DE2-7F32-273F-A4671BA61ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AED09F9-190E-B9DB-64F8-7BAD9A851B8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94E3212-34CB-B340-44A3-BF5D68CFFFBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA62076E-ED35-D42D-5EBD-E749318E67F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD294612-0612-32AF-9EA5-A6264113F9CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C0AF80-3C23-3DB7-FB66-D935915C0334}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24043A34-E0A0-4AC5-BCBC-20FA85417777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CA2B6-E9AE-41D3-8943-25C31437B86F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F332FC-DC49-45F7-95A6-31C42E896D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA5E28-F822-4918-9DF8-34E998022F1E}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA8C90-FEA3-4594-90DA-6BFC4116DFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B07E8-F6C9-4144-9AF9-52796310E43B}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57686D72-F53D-4B88-B87F-752582557043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5BC18C-DD8D-4E49-9C52-40B31191A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F004FC76-7E11-4B73-A816-409094722808}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{110748E5-E5F6-4EA0-95CB-386C6106CA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AED09F9-190E-B9DB-64F8-7BAD9A851B8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A1CC5A-6E10-72B9-8070-951353CBD128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA62076E-ED35-D42D-5EBD-E749318E67F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C4E803-B98E-3DAE-3347-47B57F801B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C0AF80-3C23-3DB7-FB66-D935915C0334}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CA65E7-C9AF-9C46-5AF1-8BB49EBE81F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CA2B6-E9AE-41D3-8943-25C31437B86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2404D4-808A-42D5-84DA-AED1254B1F6F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA5E28-F822-4918-9DF8-34E998022F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD5161-B6A9-4B2F-A178-58BB9B495562}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B07E8-F6C9-4144-9AF9-52796310E43B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3700435-5126-4AB6-9CDE-742EB3FA8653}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5BC18C-DD8D-4E49-9C52-40B31191A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{276E7BC7-136D-4A95-A5D6-C2AC7615171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{110748E5-E5F6-4EA0-95CB-386C6106CA3F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{96AB858A-A9AB-4640-AFE1-8263FC8241E2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A1CC5A-6E10-72B9-8070-951353CBD128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DA2CCA-566C-89C9-E74D-683319C62444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C4E803-B98E-3DAE-3347-47B57F801B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D7BD1E-FEEF-9762-0468-58DE01782B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CA65E7-C9AF-9C46-5AF1-8BB49EBE81F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD73BB4D-BE36-7A8B-D75A-C8C1F9F9C3F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2404D4-808A-42D5-84DA-AED1254B1F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF7532-CF5F-4C31-82FB-BE8AEE99AF95}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD5161-B6A9-4B2F-A178-58BB9B495562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8477A634-1C18-4144-8CF0-ED8790F585F7}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3700435-5126-4AB6-9CDE-742EB3FA8653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D555936-9299-4287-ADD1-C136070C7822}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{276E7BC7-136D-4A95-A5D6-C2AC7615171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA14C57-4547-41E0-ADD5-C9E66750DEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{96AB858A-A9AB-4640-AFE1-8263FC8241E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DB9CD522-EA48-4503-ADAE-1A23243A2B93}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DA2CCA-566C-89C9-E74D-683319C62444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A5B880-FF41-D10E-7524-2657FEEA667D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D7BD1E-FEEF-9762-0468-58DE01782B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8A27B3-3D2E-4AB3-CF3A-8B050D5772AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD73BB4D-BE36-7A8B-D75A-C8C1F9F9C3F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045BEFEF-A61F-2105-CB2B-5ED7AB57C330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF7532-CF5F-4C31-82FB-BE8AEE99AF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2AAB6A-7084-44EF-B389-E41EAAF504DB}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8477A634-1C18-4144-8CF0-ED8790F585F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65679B3-F205-4E05-ACDE-3D671CA3002E}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D555936-9299-4287-ADD1-C136070C7822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3924B779-95FC-4815-AB50-B1187E8D3D7A}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA14C57-4547-41E0-ADD5-C9E66750DEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24DC939-926B-4581-BCF1-2ECBF789822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DB9CD522-EA48-4503-ADAE-1A23243A2B93}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{97C9ACDA-E510-4BB2-A140-0A9C1A074D35}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -881,7 +881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A5B880-FF41-D10E-7524-2657FEEA667D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02256B1-6674-950B-19D6-03DBE0010E59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +936,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8A27B3-3D2E-4AB3-CF3A-8B050D5772AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E527DDB3-0882-2006-BD23-DB658228BAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045BEFEF-A61F-2105-CB2B-5ED7AB57C330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57D19C9-57C5-3ECE-C86F-33F3A4ABF876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2AAB6A-7084-44EF-B389-E41EAAF504DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8955C61-18EC-4201-90A9-60D0488DA552}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4327,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65679B3-F205-4E05-ACDE-3D671CA3002E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466DBE3-D392-4039-98C3-50616F2D34EC}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +6648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3924B779-95FC-4815-AB50-B1187E8D3D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F198F8-9184-411E-842A-62D3265AE32E}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24DC939-926B-4581-BCF1-2ECBF789822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110573CF-6F7F-495B-A357-F899FBF80EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{97C9ACDA-E510-4BB2-A140-0A9C1A074D35}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45B2F01A-3603-44FF-B8C3-A9A310F6EC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="219">
   <si>
     <t>~fi_t</t>
   </si>
@@ -223,7 +223,7 @@
     <t>ep_nuclear_G100000500192</t>
   </si>
   <si>
-    <t>ep_solar_pv</t>
+    <t>ep_solar_pv_</t>
   </si>
   <si>
     <t>solar</t>
@@ -232,7 +232,7 @@
     <t>elc_sol-BGR</t>
   </si>
   <si>
-    <t>ep_solar_pv_</t>
+    <t>ep_solar_pv_BGR</t>
   </si>
   <si>
     <t>ep_solar_pv_G100000807270</t>
@@ -253,7 +253,7 @@
     <t>ep_solar_pv_G100001023568</t>
   </si>
   <si>
-    <t>ep_wind_onshore</t>
+    <t>ep_wind_onshore_BGR</t>
   </si>
   <si>
     <t>wind</t>
@@ -265,7 +265,7 @@
     <t>ep_wind_onshore_G100000919655</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -424,12 +424,12 @@
     <t>Kozloduy nuclear power plant_5</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Tenovo solar farm_--</t>
   </si>
   <si>
@@ -643,30 +643,18 @@
     <t>ncap_iled</t>
   </si>
   <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
     <t>Bioenergy - Large scale unit</t>
   </si>
   <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
     <t>CCGT</t>
   </si>
   <si>
     <t>CCGT + CCS</t>
   </si>
   <si>
-    <t>CCGT - CHP</t>
-  </si>
-  <si>
     <t>Coal + CCS</t>
   </si>
   <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
     <t>Fuel cell (distributed electricity generation)</t>
   </si>
   <si>
@@ -676,37 +664,19 @@
     <t>Gas turbine</t>
   </si>
   <si>
-    <t>Geothermal plant</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
     <t>Hydropower - large-scale unit</t>
   </si>
   <si>
-    <t>Hydropower - small-scale unit</t>
-  </si>
-  <si>
     <t>IGCC</t>
   </si>
   <si>
     <t>IGCC + CCS</t>
   </si>
   <si>
-    <t>Marine power</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Nuclear large</t>
   </si>
   <si>
     <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -881,7 +851,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02256B1-6674-950B-19D6-03DBE0010E59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B4AC7B-DC40-6B7C-86DB-E1BA9AFD76FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +906,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E527DDB3-0882-2006-BD23-DB658228BAAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87424DBD-2E47-4479-33DF-EE120F88F3BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +961,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57D19C9-57C5-3ECE-C86F-33F3A4ABF876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA9E6F6-DEE8-F90C-CFAB-83CAA398141B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,8 +1312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8955C61-18EC-4201-90A9-60D0488DA552}">
-  <dimension ref="A1:Q107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF842A90-DBDC-47C8-B051-F82243D6E250}">
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1652,13 +1622,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="4">
-        <v>0.37</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E9" s="4">
-        <v>0.37</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="F9" s="4">
-        <v>0.37</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -1709,7 +1679,7 @@
         <v>83</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -1736,13 +1706,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="4">
-        <v>575</v>
+        <v>2350</v>
       </c>
       <c r="F11" s="4">
-        <v>575</v>
+        <v>2300</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>7</v>
@@ -1751,7 +1721,7 @@
         <v>83</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
@@ -1778,13 +1748,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1793,7 +1763,7 @@
         <v>83</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -1820,13 +1790,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>200</v>
@@ -1835,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
@@ -1856,19 +1826,19 @@
         <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>0.35000000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="E14" s="3">
-        <v>0.35000000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="3">
-        <v>0.35000000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>6</v>
@@ -1898,22 +1868,22 @@
         <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>0.60000000000000009</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="4">
-        <v>0.60000000000000009</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="4">
-        <v>0.60000000000000009</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>83</v>
@@ -1940,28 +1910,28 @@
         <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>2400</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3">
-        <v>2350</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3">
-        <v>2300</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -1979,31 +1949,31 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>85</v>
+        <v>0.51</v>
       </c>
       <c r="E17" s="4">
-        <v>85</v>
+        <v>0.52</v>
       </c>
       <c r="F17" s="4">
-        <v>80</v>
+        <v>0.54</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>83</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
@@ -2021,31 +1991,31 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>3100</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>3100</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2400</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -2066,28 +2036,28 @@
         <v>203</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="4">
-        <v>0.70000000000000007</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4">
-        <v>0.70000000000000007</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4">
-        <v>0.70000000000000007</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>83</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
@@ -2105,31 +2075,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.37</v>
       </c>
       <c r="E20" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.38</v>
       </c>
       <c r="F20" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
@@ -2147,22 +2117,22 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="4">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="E21" s="4">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="F21" s="4">
-        <v>3600</v>
+        <v>4350</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
@@ -2171,7 +2141,7 @@
         <v>83</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
@@ -2189,175 +2159,99 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E22" s="3">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F22" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>0.54</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>0.59</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>0.6</v>
+        <v>2500</v>
       </c>
       <c r="F24" s="3">
-        <v>0.61</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>40</v>
@@ -2366,40 +2260,21 @@
         <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>25</v>
+        <v>0.4</v>
       </c>
       <c r="E26" s="3">
-        <v>25</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="F26" s="3">
-        <v>25</v>
+        <v>0.42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>40</v>
@@ -2408,40 +2283,21 @@
         <v>13</v>
       </c>
       <c r="D27" s="4">
-        <v>0.51</v>
+        <v>500</v>
       </c>
       <c r="E27" s="4">
-        <v>0.52</v>
+        <v>500</v>
       </c>
       <c r="F27" s="4">
-        <v>0.54</v>
+        <v>500</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2450,120 +2306,82 @@
         <v>13</v>
       </c>
       <c r="D28" s="3">
-        <v>3100</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3">
-        <v>3100</v>
+        <v>20</v>
       </c>
       <c r="F28" s="3">
-        <v>2400</v>
+        <v>20</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3">
-        <v>0.82000000000000006</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E30" s="3">
-        <v>0.83000000000000007</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="F30" s="3">
-        <v>0.84</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="4">
-        <v>1300</v>
+        <v>2650</v>
       </c>
       <c r="E31" s="4">
-        <v>1300</v>
+        <v>2650</v>
       </c>
       <c r="F31" s="4">
-        <v>1300</v>
+        <v>2650</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
@@ -2571,22 +2389,22 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
@@ -2594,137 +2412,137 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="4">
-        <v>0.37</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4">
-        <v>0.38</v>
+        <v>4</v>
       </c>
       <c r="F33" s="4">
-        <v>0.39</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3">
-        <v>5500</v>
+        <v>0.45</v>
       </c>
       <c r="E34" s="3">
-        <v>5500</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="F34" s="3">
-        <v>4350</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="4">
-        <v>165</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="4">
-        <v>165</v>
+        <v>2350</v>
       </c>
       <c r="F35" s="4">
-        <v>130</v>
+        <v>2300</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="E36" s="3">
-        <v>0.4</v>
+        <v>85</v>
       </c>
       <c r="F36" s="3">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="4">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="E37" s="4">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F37" s="4">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="3">
-        <v>5650</v>
+        <v>5850</v>
       </c>
       <c r="E38" s="3">
-        <v>4950</v>
+        <v>5700</v>
       </c>
       <c r="F38" s="3">
-        <v>3850</v>
+        <v>5100</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>7</v>
@@ -2732,22 +2550,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="4">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4">
         <v>200</v>
       </c>
       <c r="F39" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
@@ -2755,278 +2573,278 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="F40" s="3">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>0.5</v>
+        <v>6600</v>
       </c>
       <c r="E41" s="4">
-        <v>0.54</v>
+        <v>5100</v>
       </c>
       <c r="F41" s="4">
-        <v>0.6</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>165</v>
       </c>
       <c r="E42" s="3">
-        <v>2500</v>
+        <v>165</v>
       </c>
       <c r="F42" s="3">
-        <v>2500</v>
+        <v>160</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>100</v>
+        <v>0.37</v>
       </c>
       <c r="E43" s="4">
-        <v>50</v>
+        <v>0.38</v>
       </c>
       <c r="F43" s="4">
-        <v>50</v>
+        <v>0.39</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="3">
-        <v>0.4</v>
+        <v>5700</v>
       </c>
       <c r="E44" s="3">
-        <v>0.41000000000000003</v>
+        <v>5700</v>
       </c>
       <c r="F44" s="3">
-        <v>0.42</v>
+        <v>5100</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="E45" s="4">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="F45" s="4">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E47" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F47" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3">
-        <v>0.85000000000000009</v>
+        <v>750</v>
       </c>
       <c r="E48" s="3">
-        <v>0.85000000000000009</v>
+        <v>480</v>
       </c>
       <c r="F48" s="3">
-        <v>0.85000000000000009</v>
+        <v>340</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="4">
-        <v>2850</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4">
-        <v>2800</v>
+        <v>10</v>
       </c>
       <c r="F49" s="4">
-        <v>2600</v>
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3">
-        <v>55</v>
+        <v>1.5</v>
       </c>
       <c r="E50" s="3">
-        <v>55</v>
+        <v>1.5</v>
       </c>
       <c r="F50" s="3">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="4">
-        <v>4</v>
+        <v>0.39</v>
       </c>
       <c r="E51" s="4">
-        <v>4</v>
+        <v>0.39</v>
       </c>
       <c r="F51" s="4">
-        <v>4</v>
+        <v>0.39</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -3034,22 +2852,22 @@
         <v>214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -3057,111 +2875,111 @@
         <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="4">
-        <v>0.35000000000000003</v>
+        <v>45</v>
       </c>
       <c r="E53" s="4">
-        <v>0.35000000000000003</v>
+        <v>45</v>
       </c>
       <c r="F53" s="4">
-        <v>0.35000000000000003</v>
+        <v>45</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3">
-        <v>2650</v>
+        <v>0.43</v>
       </c>
       <c r="E54" s="3">
-        <v>2650</v>
+        <v>0.43</v>
       </c>
       <c r="F54" s="3">
-        <v>2650</v>
+        <v>0.43</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="4">
-        <v>65</v>
+        <v>2000</v>
       </c>
       <c r="E55" s="4">
-        <v>65</v>
+        <v>2000</v>
       </c>
       <c r="F55" s="4">
-        <v>65</v>
+        <v>2000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E56" s="3">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F56" s="3">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="E57" s="4">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>6</v>
@@ -3169,183 +2987,183 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3">
-        <v>0.25</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>0.25</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>0.25</v>
+        <v>2200</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4">
-        <v>3850</v>
+        <v>65</v>
       </c>
       <c r="E59" s="4">
-        <v>3850</v>
+        <v>65</v>
       </c>
       <c r="F59" s="4">
-        <v>3850</v>
+        <v>65</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E60" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="4">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E61" s="4">
-        <v>4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F61" s="4">
-        <v>4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3">
-        <v>0.45</v>
+        <v>3120</v>
       </c>
       <c r="E62" s="3">
-        <v>0.47000000000000003</v>
+        <v>2280</v>
       </c>
       <c r="F62" s="3">
-        <v>0.5</v>
+        <v>1660</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
+        <v>60</v>
+      </c>
+      <c r="E63" s="4">
+        <v>50</v>
+      </c>
+      <c r="F63" s="4">
         <v>40</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2300</v>
-      </c>
       <c r="G63" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="F64" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>6</v>
@@ -3353,48 +3171,48 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="3">
-        <v>5850</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E66" s="3">
-        <v>5700</v>
+        <v>0.3</v>
       </c>
       <c r="F66" s="3">
-        <v>5100</v>
+        <v>0.3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="4">
-        <v>205</v>
+        <v>1630</v>
       </c>
       <c r="E67" s="4">
-        <v>200</v>
+        <v>1550</v>
       </c>
       <c r="F67" s="4">
-        <v>180</v>
+        <v>1490</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
@@ -3402,22 +3220,22 @@
         <v>218</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E68" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
@@ -3425,895 +3243,21 @@
         <v>218</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E69" s="4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
-        <v>6950</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4">
-        <v>200</v>
-      </c>
-      <c r="E71" s="4">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>90</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="4">
-        <v>165</v>
-      </c>
-      <c r="E75" s="4">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4">
-        <v>160</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5100</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3">
-        <v>170</v>
-      </c>
-      <c r="E78" s="3">
-        <v>170</v>
-      </c>
-      <c r="F78" s="3">
-        <v>155</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="4">
-        <v>990</v>
-      </c>
-      <c r="E81" s="4">
-        <v>650</v>
-      </c>
-      <c r="F81" s="4">
-        <v>470</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3">
-        <v>14</v>
-      </c>
-      <c r="F82" s="3">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3">
-        <v>750</v>
-      </c>
-      <c r="E86" s="3">
-        <v>480</v>
-      </c>
-      <c r="F86" s="3">
-        <v>340</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="4">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4">
-        <v>10</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="4">
-        <v>45</v>
-      </c>
-      <c r="E91" s="4">
-        <v>45</v>
-      </c>
-      <c r="F91" s="4">
-        <v>45</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3">
-        <v>60</v>
-      </c>
-      <c r="E94" s="3">
-        <v>60</v>
-      </c>
-      <c r="F94" s="3">
-        <v>60</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="4">
-        <v>65</v>
-      </c>
-      <c r="E97" s="4">
-        <v>65</v>
-      </c>
-      <c r="F97" s="4">
-        <v>65</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3">
-        <v>3120</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2280</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1660</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>60</v>
-      </c>
-      <c r="E101" s="4">
-        <v>50</v>
-      </c>
-      <c r="F101" s="4">
-        <v>40</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1630</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1550</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1490</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="3">
-        <v>42</v>
-      </c>
-      <c r="E106" s="3">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>38</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G107" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4327,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466DBE3-D392-4039-98C3-50616F2D34EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC8D76-7528-4513-BB8B-83CF2D4568C6}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6648,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F198F8-9184-411E-842A-62D3265AE32E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E842D6B4-008E-4B47-92D8-53920FAEEA70}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9118,7 +8062,7 @@
         <v>61</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>85</v>
@@ -9127,7 +8071,7 @@
         <v>86</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>88</v>
@@ -9171,16 +8115,16 @@
         <v>64</v>
       </c>
       <c r="P49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>88</v>
@@ -9233,7 +8177,7 @@
         <v>86</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>90</v>
@@ -9286,7 +8230,7 @@
         <v>86</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>90</v>
@@ -9339,7 +8283,7 @@
         <v>86</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>90</v>
@@ -9392,7 +8336,7 @@
         <v>86</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>90</v>
@@ -9445,7 +8389,7 @@
         <v>86</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>90</v>
@@ -9498,7 +8442,7 @@
         <v>86</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>90</v>
@@ -9551,7 +8495,7 @@
         <v>86</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>88</v>
@@ -9604,7 +8548,7 @@
         <v>86</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T57" s="4" t="s">
         <v>90</v>
@@ -9877,30 +8821,30 @@
         <v>63</v>
       </c>
       <c r="D66" s="3">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="E66" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>0.16943700000000006</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H66" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>62</v>
@@ -9909,10 +8853,10 @@
         <v>63</v>
       </c>
       <c r="D67" s="4">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E67" s="4">
-        <v>4.0799999999999996E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -9927,12 +8871,12 @@
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>62</v>
@@ -9941,30 +8885,30 @@
         <v>63</v>
       </c>
       <c r="D68" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E68" s="3">
-        <v>0.34</v>
+        <v>4.0799999999999996E-2</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
       </c>
       <c r="G68" s="3">
-        <v>1271.8588235294117</v>
+        <v>1336.5</v>
       </c>
       <c r="H68" s="3">
-        <v>20.372647058823539</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
       <c r="J68" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>62</v>
@@ -9973,30 +8917,30 @@
         <v>63</v>
       </c>
       <c r="D69" s="4">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E69" s="4">
-        <v>2.12E-2</v>
+        <v>0.34</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
       </c>
       <c r="G69" s="4">
-        <v>1336.5</v>
+        <v>1271.8588235294117</v>
       </c>
       <c r="H69" s="4">
-        <v>21.450000000000003</v>
+        <v>20.372647058823539</v>
       </c>
       <c r="I69" s="4">
         <v>0</v>
       </c>
       <c r="J69" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>62</v>
@@ -10005,30 +8949,30 @@
         <v>63</v>
       </c>
       <c r="D70" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E70" s="3">
-        <v>0.88529999999999998</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>1336.4999999999995</v>
+        <v>1336.5</v>
       </c>
       <c r="H70" s="3">
-        <v>21.449999999999989</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>62</v>
@@ -10037,30 +8981,30 @@
         <v>63</v>
       </c>
       <c r="D71" s="4">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E71" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
       </c>
       <c r="G71" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999995</v>
       </c>
       <c r="H71" s="4">
-        <v>21.450000000000003</v>
+        <v>21.449999999999989</v>
       </c>
       <c r="I71" s="4">
         <v>0</v>
       </c>
       <c r="J71" s="4">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>62</v>
@@ -10069,30 +9013,30 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E72" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>1186.02</v>
+        <v>1336.5</v>
       </c>
       <c r="H72" s="3">
-        <v>18.942</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>62</v>
@@ -10101,30 +9045,30 @@
         <v>63</v>
       </c>
       <c r="D73" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E73" s="4">
-        <v>0.17399999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
       </c>
       <c r="G73" s="4">
-        <v>1155.5689655172414</v>
+        <v>1186.02</v>
       </c>
       <c r="H73" s="4">
-        <v>18.434482758620693</v>
+        <v>18.942</v>
       </c>
       <c r="I73" s="4">
         <v>0</v>
       </c>
       <c r="J73" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>62</v>
@@ -10133,25 +9077,25 @@
         <v>63</v>
       </c>
       <c r="D74" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E74" s="3">
-        <v>0.17499999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>1232.4085714285713</v>
+        <v>1155.5689655172414</v>
       </c>
       <c r="H74" s="3">
-        <v>19.715142857142862</v>
+        <v>18.434482758620693</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
@@ -10165,25 +9109,25 @@
         <v>63</v>
       </c>
       <c r="D75" s="4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E75" s="4">
-        <v>0.16943700000000006</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>1138.5</v>
+        <v>1232.4085714285713</v>
       </c>
       <c r="H75" s="4">
-        <v>18.150000000000002</v>
+        <v>19.715142857142862</v>
       </c>
       <c r="I75" s="4">
         <v>0</v>
       </c>
       <c r="J75" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110573CF-6F7F-495B-A357-F899FBF80EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D662B2A0-D6A7-44A3-9078-0D5CEC8E8B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{45B2F01A-3603-44FF-B8C3-A9A310F6EC7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CFD3B393-305C-4FF3-9DA1-C5ABF496CC75}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
-    <sheet name="ccs_retrofits" sheetId="2" r:id="rId2"/>
-    <sheet name="existing_stock" sheetId="1" r:id="rId3"/>
+    <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
+    <sheet name="existing_stock" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="197">
   <si>
     <t>~fi_t</t>
   </si>
@@ -629,72 +628,6 @@
   </si>
   <si>
     <t>ccs retrofit of -- Varna power station_Unit 4, timepoint 2</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>ncap_af</t>
-  </si>
-  <si>
-    <t>ncap_iled</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>CCGT + CCS</t>
-  </si>
-  <si>
-    <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Gas turbine</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>IGCC + CCS</t>
-  </si>
-  <si>
-    <t>Nuclear large</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUBCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - ULTRASUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
   </si>
 </sst>
 </file>
@@ -835,61 +768,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>163513</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B4AC7B-DC40-6B7C-86DB-E1BA9AFD76FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779000" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -906,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87424DBD-2E47-4479-33DF-EE120F88F3BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E73695-057A-D45A-8A8D-E59C3F0F8D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +819,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -961,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA9E6F6-DEE8-F90C-CFAB-83CAA398141B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08135A2F-A8FB-B533-3DEF-092044B35A93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,1969 +1190,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF842A90-DBDC-47C8-B051-F82243D6E250}">
-  <dimension ref="A1:Q69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5C0F72-F2E7-4F5A-949F-8F96C0B480A4}">
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2050</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5750</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>175</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2400</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>85</v>
-      </c>
-      <c r="E12" s="3">
-        <v>85</v>
-      </c>
-      <c r="F12" s="3">
-        <v>80</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>75</v>
-      </c>
-      <c r="E19" s="4">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4">
-        <v>60</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5500</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4350</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>165</v>
-      </c>
-      <c r="E22" s="3">
-        <v>165</v>
-      </c>
-      <c r="F22" s="3">
-        <v>130</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4">
-        <v>50</v>
-      </c>
-      <c r="F25" s="4">
-        <v>50</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>500</v>
-      </c>
-      <c r="E27" s="4">
-        <v>500</v>
-      </c>
-      <c r="F27" s="4">
-        <v>500</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3">
-        <v>20</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2650</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2650</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2650</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3">
-        <v>65</v>
-      </c>
-      <c r="F32" s="3">
-        <v>65</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4">
-        <v>4</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
-        <v>95</v>
-      </c>
-      <c r="E36" s="3">
-        <v>85</v>
-      </c>
-      <c r="F36" s="3">
-        <v>80</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5850</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F38" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>205</v>
-      </c>
-      <c r="E39" s="4">
-        <v>200</v>
-      </c>
-      <c r="F39" s="4">
-        <v>180</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>6600</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5100</v>
-      </c>
-      <c r="F41" s="4">
-        <v>4500</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
-        <v>165</v>
-      </c>
-      <c r="E42" s="3">
-        <v>165</v>
-      </c>
-      <c r="F42" s="3">
-        <v>160</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
-        <v>170</v>
-      </c>
-      <c r="E45" s="4">
-        <v>170</v>
-      </c>
-      <c r="F45" s="4">
-        <v>155</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
-        <v>750</v>
-      </c>
-      <c r="E48" s="3">
-        <v>480</v>
-      </c>
-      <c r="F48" s="3">
-        <v>340</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4">
-        <v>10</v>
-      </c>
-      <c r="F49" s="4">
-        <v>10</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="4">
-        <v>45</v>
-      </c>
-      <c r="E53" s="4">
-        <v>45</v>
-      </c>
-      <c r="F53" s="4">
-        <v>45</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
-        <v>60</v>
-      </c>
-      <c r="E56" s="3">
-        <v>60</v>
-      </c>
-      <c r="F56" s="3">
-        <v>60</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4">
-        <v>65</v>
-      </c>
-      <c r="E59" s="4">
-        <v>65</v>
-      </c>
-      <c r="F59" s="4">
-        <v>65</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
-        <v>3120</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2280</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1660</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>60</v>
-      </c>
-      <c r="E63" s="4">
-        <v>50</v>
-      </c>
-      <c r="F63" s="4">
-        <v>40</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3">
-        <v>3</v>
-      </c>
-      <c r="F64" s="3">
-        <v>3</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1630</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1550</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1490</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
-        <v>42</v>
-      </c>
-      <c r="E68" s="3">
-        <v>40</v>
-      </c>
-      <c r="F68" s="3">
-        <v>38</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC8D76-7528-4513-BB8B-83CF2D4568C6}">
-  <dimension ref="A1:U48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5591,8 +3510,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E842D6B4-008E-4B47-92D8-53920FAEEA70}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64026E7-C554-40B2-937D-2E3670C82DC0}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D662B2A0-D6A7-44A3-9078-0D5CEC8E8B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2932B214-6236-4627-BFF5-80FC52AB1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CFD3B393-305C-4FF3-9DA1-C5ABF496CC75}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{84F86102-2025-493F-B92E-459050D352E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E73695-057A-D45A-8A8D-E59C3F0F8D26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE0B38C-411B-11FE-4D79-0CD6CB6997AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08135A2F-A8FB-B533-3DEF-092044B35A93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201A0E32-BE19-C563-405F-2D4CA152ABE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5C0F72-F2E7-4F5A-949F-8F96C0B480A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2EC9E6-E646-48B7-9D1F-32C0C07C9FC7}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64026E7-C554-40B2-937D-2E3670C82DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F32956-E528-4B55-9DDF-C8799ED1A921}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2932B214-6236-4627-BFF5-80FC52AB1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E032219-A66D-4585-8004-D6B5B84B215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{84F86102-2025-493F-B92E-459050D352E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9A654DBA-2FEB-4E76-A06C-78D0C30074A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <t>solar</t>
   </si>
   <si>
-    <t>elc_sol-BGR</t>
+    <t>elc_spv-BGR</t>
   </si>
   <si>
     <t>ep_solar_pv_BGR</t>
@@ -743,9 +743,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE0B38C-411B-11FE-4D79-0CD6CB6997AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B87F70-ACF8-2C73-904B-3EFDAE886AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201A0E32-BE19-C563-405F-2D4CA152ABE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38BDCD4-BB65-69D3-2A4B-E22AE6E86468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2EC9E6-E646-48B7-9D1F-32C0C07C9FC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1871261-1C9D-4157-97D1-53DB391E113F}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F32956-E528-4B55-9DDF-C8799ED1A921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CEEBD0-29F3-475D-AAD4-A69943DB3714}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E032219-A66D-4585-8004-D6B5B84B215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECF2A63-2501-4690-8C5A-23C71F102C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9A654DBA-2FEB-4E76-A06C-78D0C30074A7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{742FC512-5F0E-483C-A22F-6E8A10899E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B87F70-ACF8-2C73-904B-3EFDAE886AF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F569218-CDA2-CC80-8B0A-58C358409D46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38BDCD4-BB65-69D3-2A4B-E22AE6E86468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F263E156-B85F-BDD5-9915-B5D4CB487C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1871261-1C9D-4157-97D1-53DB391E113F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76231B91-F798-4E3A-967A-DC4D119D50A7}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CEEBD0-29F3-475D-AAD4-A69943DB3714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CDFEC-D843-4FC3-B44A-ABD2BFA8EBB2}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECF2A63-2501-4690-8C5A-23C71F102C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA98904D-049B-46B5-A918-F5F243B8FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{742FC512-5F0E-483C-A22F-6E8A10899E3A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C2C5A61F-2123-4690-8B78-FE8CAD204C61}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F569218-CDA2-CC80-8B0A-58C358409D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFE9EAC-F11B-DA23-2E64-A71D3F4BBDB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F263E156-B85F-BDD5-9915-B5D4CB487C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595B258D-2B4C-854D-A692-457F65B36ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76231B91-F798-4E3A-967A-DC4D119D50A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECEA371-34A4-455F-9F27-24E89FB2147D}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CDFEC-D843-4FC3-B44A-ABD2BFA8EBB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D204BBB9-3F11-44B1-98B8-2E0E62C60507}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA98904D-049B-46B5-A918-F5F243B8FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CD7460-FD42-4BF8-AA2D-1A42DA2419E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C2C5A61F-2123-4690-8B78-FE8CAD204C61}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9AE68847-B964-41E7-947F-B17709F96147}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFE9EAC-F11B-DA23-2E64-A71D3F4BBDB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E906FDB4-4695-440B-069A-03C9707F251A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595B258D-2B4C-854D-A692-457F65B36ECF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20CF105-8D5F-541C-47AC-474D25F9E898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECEA371-34A4-455F-9F27-24E89FB2147D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD426-384C-4256-B0E7-63AEE2B1C407}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D204BBB9-3F11-44B1-98B8-2E0E62C60507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1DBAFB-9716-4AB5-B24A-FDC9FE0274BE}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CD7460-FD42-4BF8-AA2D-1A42DA2419E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2D562A-E23F-43BC-A9AD-D9A1BF164107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9AE68847-B964-41E7-947F-B17709F96147}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ADEE7260-85D2-4A23-BCB4-211DD3892966}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E906FDB4-4695-440B-069A-03C9707F251A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998ED8A-B792-238B-7B2E-42032AEE4DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20CF105-8D5F-541C-47AC-474D25F9E898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7BF47D-EA53-87CD-DF09-4E76FB190B06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DD426-384C-4256-B0E7-63AEE2B1C407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462B6FD-73F3-46CD-95C4-5028ABEB629E}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1DBAFB-9716-4AB5-B24A-FDC9FE0274BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C4893E-503A-46EE-B389-3EB2CA13B11A}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2D562A-E23F-43BC-A9AD-D9A1BF164107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E151D0C-7E76-4502-A138-27CE5C3FB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ADEE7260-85D2-4A23-BCB4-211DD3892966}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D3EA1F79-8980-4116-B17E-771A5E5667A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998ED8A-B792-238B-7B2E-42032AEE4DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC523C7D-4FAE-BD2E-5DB6-9D2AC7AC7B71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7BF47D-EA53-87CD-DF09-4E76FB190B06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB97A3AC-ECB3-0FEE-3573-39E3597C901B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462B6FD-73F3-46CD-95C4-5028ABEB629E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091658C0-22B6-49A7-86C0-8715B8ADE331}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C4893E-503A-46EE-B389-3EB2CA13B11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9070B7A6-81BC-425B-A402-8922B51FFC24}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E151D0C-7E76-4502-A138-27CE5C3FB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF87143-3320-4311-B6B2-D3187A0DA687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D3EA1F79-8980-4116-B17E-771A5E5667A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{796E308F-AC7E-4790-86B5-99F21FCF7D15}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC523C7D-4FAE-BD2E-5DB6-9D2AC7AC7B71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964323CC-84C3-85D8-EF24-46CED513FAF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB97A3AC-ECB3-0FEE-3573-39E3597C901B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B15EB42-661D-D659-C592-65A7FFDD3095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091658C0-22B6-49A7-86C0-8715B8ADE331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D658519B-398A-4FE3-9ED4-A683E2328007}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9070B7A6-81BC-425B-A402-8922B51FFC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C45F742-8E49-4AE1-85AE-8C3998F89C23}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF87143-3320-4311-B6B2-D3187A0DA687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72AA812B-4B1C-4007-8D81-75ECAB57E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{796E308F-AC7E-4790-86B5-99F21FCF7D15}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7F337387-3EAF-4568-B881-3FCEBFD7180D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964323CC-84C3-85D8-EF24-46CED513FAF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C778858A-929E-A881-0EAD-D3D02ABCA6E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B15EB42-661D-D659-C592-65A7FFDD3095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F42C18-F667-3FC3-B55A-DDB1DA2951AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D658519B-398A-4FE3-9ED4-A683E2328007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488238B2-B887-4F87-9B6B-BE1467A83377}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C45F742-8E49-4AE1-85AE-8C3998F89C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5776923D-1BA4-4CB1-BC71-BBE8B1B8DE7A}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72AA812B-4B1C-4007-8D81-75ECAB57E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FAF4BEE-516D-446A-9410-B3CB93DF7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7F337387-3EAF-4568-B881-3FCEBFD7180D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{32414EAF-83F8-4433-AF9A-47EB65BBF434}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C778858A-929E-A881-0EAD-D3D02ABCA6E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7847DAE-F327-5B08-9442-69D55D3C2EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F42C18-F667-3FC3-B55A-DDB1DA2951AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669F8EC7-D083-F1D2-8469-1E2033D9349B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488238B2-B887-4F87-9B6B-BE1467A83377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B27918B-B983-449C-AF8A-ECECD09B4B21}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5776923D-1BA4-4CB1-BC71-BBE8B1B8DE7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499EAD5-E3C0-4CE3-A17B-7BFA8D8FE1D1}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FAF4BEE-516D-446A-9410-B3CB93DF7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8238EB-AB7A-42AD-B7B5-E93822BC5456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{32414EAF-83F8-4433-AF9A-47EB65BBF434}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20312CED-ECB1-432D-816B-43504BD6B89C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7847DAE-F327-5B08-9442-69D55D3C2EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1349DC3-1713-15A7-5895-DD69C0FF7265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669F8EC7-D083-F1D2-8469-1E2033D9349B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819016C6-CFDB-DC2D-C44D-6B85788BAAC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B27918B-B983-449C-AF8A-ECECD09B4B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF90B062-FA78-4004-A8E8-56BDAC9A11F7}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499EAD5-E3C0-4CE3-A17B-7BFA8D8FE1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4853AE-5D22-47D8-8A69-08278A5F820D}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8238EB-AB7A-42AD-B7B5-E93822BC5456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD805275-D753-4436-AE80-FDA28A470B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20312CED-ECB1-432D-816B-43504BD6B89C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4996952B-0364-4EF0-84DA-3DC52650B533}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1349DC3-1713-15A7-5895-DD69C0FF7265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E17255F-552B-75A6-966A-EACC9367A139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819016C6-CFDB-DC2D-C44D-6B85788BAAC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42918CD-0ADD-B736-0BAA-21945DFEB24D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF90B062-FA78-4004-A8E8-56BDAC9A11F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E1D67-D68F-4A6B-AECC-FAC65FBB2354}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4853AE-5D22-47D8-8A69-08278A5F820D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB07690-037B-4786-8420-15EFF30604F5}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD805275-D753-4436-AE80-FDA28A470B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CAE57D-308A-4BA7-8BB1-8ACE7AEE2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4996952B-0364-4EF0-84DA-3DC52650B533}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B66EF1EB-D104-4D29-B41B-22261A17754E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E17255F-552B-75A6-966A-EACC9367A139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64528D33-3972-0383-B4BB-322B0610E1C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42918CD-0ADD-B736-0BAA-21945DFEB24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1DCA62-372B-9FE1-4BD4-723B89983B42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84E1D67-D68F-4A6B-AECC-FAC65FBB2354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3691CD8E-E9E7-47AA-BF12-D5845F15E177}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB07690-037B-4786-8420-15EFF30604F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DAE16-CCF2-4CCD-8E65-BB11A5873A32}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CAE57D-308A-4BA7-8BB1-8ACE7AEE2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4781D923-1E3F-42D5-9937-46796BD41237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B66EF1EB-D104-4D29-B41B-22261A17754E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CF08B4E2-EAE7-4139-834A-6D9CD13030ED}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64528D33-3972-0383-B4BB-322B0610E1C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1B5A9F-8D52-0D90-6304-605C64D5D72D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1DCA62-372B-9FE1-4BD4-723B89983B42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC23D66-06C9-607B-C2CF-29E6EC0CBAF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3691CD8E-E9E7-47AA-BF12-D5845F15E177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A84CB38-AF65-477C-AE67-E3B586293B9B}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DAE16-CCF2-4CCD-8E65-BB11A5873A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCDAD1-3F6B-4AC3-8E98-7BBD595B1345}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FB6353-2387-4F4F-BBE2-0EC499066E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA099B23-2A5E-404F-922E-DFA084DFB41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FCFC13AC-5252-4BBB-ADBB-3C31E434FC93}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{77059B31-3C5B-4DC3-A211-CCD047DFF8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63ABFBCA-47A2-6187-EAEB-D7893BBE6DAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB9FF36-B09E-2145-D6F9-ECCE580370A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CEA278-5895-6447-C44D-2EAE74A12082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC522CB-0FE4-9102-5E75-38BB87620E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B176A517-DB03-4154-8D79-AB0CB5668967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4050BDC6-986F-418C-A685-86AA05CEC254}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754207F-999C-444E-82C8-AA53A9516E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131AF2-7731-49AE-8F73-CD76B976B0ED}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA099B23-2A5E-404F-922E-DFA084DFB41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECE4A0E-1342-466E-9998-9A248D3C40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{77059B31-3C5B-4DC3-A211-CCD047DFF8BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{76D232CA-0349-419E-B61C-D889DEA6001A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB9FF36-B09E-2145-D6F9-ECCE580370A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15B0736-B0DE-33DA-D9A1-B81CAADD8D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC522CB-0FE4-9102-5E75-38BB87620E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A7E28A-7DFF-9CBC-0107-DFDB5DECEB06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4050BDC6-986F-418C-A685-86AA05CEC254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B236F50-787D-4EF5-8275-D26E140E642C}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131AF2-7731-49AE-8F73-CD76B976B0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92412B47-82E8-47E4-ADB8-6CF3DFBD9AE5}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECE4A0E-1342-466E-9998-9A248D3C40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFD4AD7-9751-40B7-AE2C-AFD5DA9631B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{76D232CA-0349-419E-B61C-D889DEA6001A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCFEB8C3-2A1E-4A8D-98FD-E1902AE8F9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15B0736-B0DE-33DA-D9A1-B81CAADD8D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD31714D-D2B7-0E81-8131-75E9FD4734C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A7E28A-7DFF-9CBC-0107-DFDB5DECEB06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B4C8B9-C0F1-7F6F-9A8F-9F26A3ACFAFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B236F50-787D-4EF5-8275-D26E140E642C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E464C6A0-6668-48ED-9D1F-33C61C141B7D}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92412B47-82E8-47E4-ADB8-6CF3DFBD9AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDB3D0D-7966-4EDE-9F19-37D781E1FF86}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFD4AD7-9751-40B7-AE2C-AFD5DA9631B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164163D6-47C8-4636-A268-163FC1D50ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCFEB8C3-2A1E-4A8D-98FD-E1902AE8F9D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{30A0C859-5E12-4E5A-971F-5C0F7790158C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD31714D-D2B7-0E81-8131-75E9FD4734C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178A5FE2-7860-DA10-4345-44C8AE1316F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B4C8B9-C0F1-7F6F-9A8F-9F26A3ACFAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1C2D17-8623-A364-1111-23718A73FFDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E464C6A0-6668-48ED-9D1F-33C61C141B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221E595B-42E1-4407-B2BC-EA67311228C0}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDB3D0D-7966-4EDE-9F19-37D781E1FF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00244110-800D-45C8-94CA-A17541378ECE}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164163D6-47C8-4636-A268-163FC1D50ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0C823C-035E-463E-9AA4-48D438F27A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{30A0C859-5E12-4E5A-971F-5C0F7790158C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00518D34-183E-4ECE-80FD-58C41763D1F3}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178A5FE2-7860-DA10-4345-44C8AE1316F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFC2860-08C2-B4C2-8672-B712B176777E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1C2D17-8623-A364-1111-23718A73FFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CF4CD1-02B4-CC2D-BDDB-C5140F36EB99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221E595B-42E1-4407-B2BC-EA67311228C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BEC50-CF78-4CBA-957B-C1A226952731}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00244110-800D-45C8-94CA-A17541378ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F2AA6-A095-4301-8A6D-BB7D0BAB503F}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0C823C-035E-463E-9AA4-48D438F27A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE202CB9-C666-4B87-8D59-79F07E16F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00518D34-183E-4ECE-80FD-58C41763D1F3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{93A7D289-382D-477E-9AD8-59A1DD1CBE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFC2860-08C2-B4C2-8672-B712B176777E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F15DED0-2924-88B0-C7F8-AC8AA04C74D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CF4CD1-02B4-CC2D-BDDB-C5140F36EB99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9031CFC-D81B-5778-539B-496F93A8044A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BEC50-CF78-4CBA-957B-C1A226952731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8FFFEC-247A-4F19-ACCF-E08F4CEC9C15}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F2AA6-A095-4301-8A6D-BB7D0BAB503F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C492E40A-E2B6-4E53-A0EF-299A6F94726B}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE202CB9-C666-4B87-8D59-79F07E16F0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59CE83E-2F91-4AEB-901F-265638DE963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{93A7D289-382D-477E-9AD8-59A1DD1CBE8A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6D4AAC26-6683-4642-AB41-FC6AB9FDA8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F15DED0-2924-88B0-C7F8-AC8AA04C74D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55412B5C-BDB0-1686-91D8-FC9C94B62200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9031CFC-D81B-5778-539B-496F93A8044A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500F1B4-50B5-F6FC-B632-4D39D32F0CAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8FFFEC-247A-4F19-ACCF-E08F4CEC9C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D62C62-E8C2-48C7-957E-2F7EE892B163}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C492E40A-E2B6-4E53-A0EF-299A6F94726B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC403C5-23DB-4CB1-86DE-ECF01D719797}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59CE83E-2F91-4AEB-901F-265638DE963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7DFF2B-AB80-4DFA-8B11-1E282AE438E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6D4AAC26-6683-4642-AB41-FC6AB9FDA8F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{399ED1DF-143D-4B96-83CD-1BDE10DECB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55412B5C-BDB0-1686-91D8-FC9C94B62200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4EC035-0B7B-F60C-86C5-499725B36DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500F1B4-50B5-F6FC-B632-4D39D32F0CAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09394B6-A127-F557-A400-645DC44DFF52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D62C62-E8C2-48C7-957E-2F7EE892B163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3970CF69-BEFE-4DC8-8100-D42FA73884D2}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC403C5-23DB-4CB1-86DE-ECF01D719797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD638FC-EFC1-4A54-8C0B-CEF75BC82D29}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7DFF2B-AB80-4DFA-8B11-1E282AE438E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0A58CA-02F7-4857-AE4A-C87AEB43E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{399ED1DF-143D-4B96-83CD-1BDE10DECB3A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{391A1F1E-369A-459F-A64D-A737814ED772}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4EC035-0B7B-F60C-86C5-499725B36DE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FEC56D-25B0-67CD-9DCE-71AF6642F287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09394B6-A127-F557-A400-645DC44DFF52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B279088C-20AD-8262-4637-3E6D62C2B4F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3970CF69-BEFE-4DC8-8100-D42FA73884D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D204C1-D758-420E-992A-BD5BC6C82EAD}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD638FC-EFC1-4A54-8C0B-CEF75BC82D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771E91B9-6409-4091-8621-ECD94AC0DABC}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0A58CA-02F7-4857-AE4A-C87AEB43E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E1A58-DC65-4AA6-BE22-8C10AF4F8C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{391A1F1E-369A-459F-A64D-A737814ED772}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B002F7D6-C1F5-4269-A6BD-FD13D932983A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FEC56D-25B0-67CD-9DCE-71AF6642F287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2E6B7C-54E4-D028-C4AA-C77D1E4966FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B279088C-20AD-8262-4637-3E6D62C2B4F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA198C7-90A0-557D-5899-6EB423CEEC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D204C1-D758-420E-992A-BD5BC6C82EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC27276-EF20-430C-BF24-4FB57FCCEEC5}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771E91B9-6409-4091-8621-ECD94AC0DABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEAD2B4-041A-45FB-A2F3-B6FA1DD8C277}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E1A58-DC65-4AA6-BE22-8C10AF4F8C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5A0CA2-AE3E-4C64-A586-817DEEBB9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B002F7D6-C1F5-4269-A6BD-FD13D932983A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{92CE81A2-FD3A-4727-9645-99FAD3C454E3}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2E6B7C-54E4-D028-C4AA-C77D1E4966FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A039D20-1535-6700-B582-01511872DCBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA198C7-90A0-557D-5899-6EB423CEEC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57F1DAF-E429-B522-E270-007246CA82F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC27276-EF20-430C-BF24-4FB57FCCEEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730994F9-5834-4FD3-8335-01EB63B316ED}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEAD2B4-041A-45FB-A2F3-B6FA1DD8C277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678D8F22-0F8A-4B2D-A5BF-B4356F6174E8}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5A0CA2-AE3E-4C64-A586-817DEEBB9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4018036D-9848-47C0-928D-DB4DB09C2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{92CE81A2-FD3A-4727-9645-99FAD3C454E3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BA8D8F0A-9C62-4600-8E40-BF662E038DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A039D20-1535-6700-B582-01511872DCBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5146660D-697A-6E10-8739-272750E70165}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57F1DAF-E429-B522-E270-007246CA82F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03A6AD8-2AC1-93CB-9E7C-8135C57BDBF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730994F9-5834-4FD3-8335-01EB63B316ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11877DF-D83E-4174-9324-8F497312D8AF}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678D8F22-0F8A-4B2D-A5BF-B4356F6174E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AEC3D-6E07-43F9-9EFB-BB3299FEF8DD}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4018036D-9848-47C0-928D-DB4DB09C2980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DDEB3E-2AC0-4936-BA14-EF8885F8D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BA8D8F0A-9C62-4600-8E40-BF662E038DD2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6CD151E-B05F-4AF5-A226-BABF992A5B08}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5146660D-697A-6E10-8739-272750E70165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DDD6E8-F2CA-216B-AF2C-27E36B6A436E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03A6AD8-2AC1-93CB-9E7C-8135C57BDBF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EF5087-47DC-342B-CA98-69710A928C83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11877DF-D83E-4174-9324-8F497312D8AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4525000-181C-41B0-A675-3400165887CE}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AEC3D-6E07-43F9-9EFB-BB3299FEF8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE00BCF-BE95-4468-9336-6B398CC34CF3}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DDEB3E-2AC0-4936-BA14-EF8885F8D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21734B8-6366-4258-9274-77CB6CCBF97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6CD151E-B05F-4AF5-A226-BABF992A5B08}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5ECA74D-BCEB-4A74-8DB6-8496BC73FD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DDD6E8-F2CA-216B-AF2C-27E36B6A436E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503B6773-6771-DFB2-AB9C-8FCD5D999B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EF5087-47DC-342B-CA98-69710A928C83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5818D6F-B6CB-D08D-9DAA-AAE17BD09AA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4525000-181C-41B0-A675-3400165887CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5421A57F-4BBD-40C4-9FA3-A251498E0E49}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE00BCF-BE95-4468-9336-6B398CC34CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773109FC-4840-44CE-B271-B75311CFF5C3}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21734B8-6366-4258-9274-77CB6CCBF97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1501AB-D264-4D81-A59F-2F79065B96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5ECA74D-BCEB-4A74-8DB6-8496BC73FD1A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B55179BD-412E-48FA-96AC-7349771306C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503B6773-6771-DFB2-AB9C-8FCD5D999B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E89F68-0AC0-7C11-4ED2-8284DCAF5A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5818D6F-B6CB-D08D-9DAA-AAE17BD09AA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21479FBB-A9D9-5DA0-5880-2894D8C14B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5421A57F-4BBD-40C4-9FA3-A251498E0E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88920D79-D7C4-4688-95F7-469A5C86D914}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773109FC-4840-44CE-B271-B75311CFF5C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6D2F8-7997-4267-A1C9-2F40B91D77E7}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1501AB-D264-4D81-A59F-2F79065B96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E3C8EF-51CF-46C7-A680-EAA0BAD6063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B55179BD-412E-48FA-96AC-7349771306C8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0D53458D-9953-477F-907A-58DE64002FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E89F68-0AC0-7C11-4ED2-8284DCAF5A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B475C-4505-25C4-E184-88E1DAC08E4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21479FBB-A9D9-5DA0-5880-2894D8C14B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ADB10A-1167-9609-8850-1D5307F8652B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88920D79-D7C4-4688-95F7-469A5C86D914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E759032-AD67-4091-B984-C54FB0B70F51}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6D2F8-7997-4267-A1C9-2F40B91D77E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE8D51-B919-4F2F-B561-EED9A8296579}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E3C8EF-51CF-46C7-A680-EAA0BAD6063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06FFC98E-E6C0-45B8-9647-56C7303BB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0D53458D-9953-477F-907A-58DE64002FA0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A10F45C-C957-4D7C-AD51-8022F7C55E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B475C-4505-25C4-E184-88E1DAC08E4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2558680A-11BE-E016-4601-541898A5F001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ADB10A-1167-9609-8850-1D5307F8652B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CA47E-7BD9-7B31-D06F-5A1D7B773FBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E759032-AD67-4091-B984-C54FB0B70F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C4F18-4D20-421C-B4F9-26B547B07D6E}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3511,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE8D51-B919-4F2F-B561-EED9A8296579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329E8A81-1053-4BA6-96C0-DB50F6F3DE29}">
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7178343B-B624-4750-A289-0CA1FA1AB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{865ECBFE-0CAD-4704-8274-747A0EB9BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D2EA9D91-C02A-4AEC-9A3D-CC558C52742E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0FEB45E-17BF-4C03-9E9F-600570ECEF66}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0B1B2-02CD-4E2F-977B-8B31E619086D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806FCD0B-2077-42E0-9B34-06662BE59304}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC43A6E-E0CD-4297-A755-43AE8E6C4A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E74F9A-1D25-48F3-A91F-64DA68121CA1}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.2685610907610908</v>
+        <v>0.26856109076109069</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865ECBFE-0CAD-4704-8274-747A0EB9BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18049ADB-9BA8-40C8-A790-A50994AD0406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0FEB45E-17BF-4C03-9E9F-600570ECEF66}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FF985ACA-917B-4185-9D6A-DD93BDDB2242}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806FCD0B-2077-42E0-9B34-06662BE59304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF115A-CCD7-4430-8CEC-8FF806B632D1}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E74F9A-1D25-48F3-A91F-64DA68121CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77183256-7E95-4C74-8646-9F0B722BE119}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.26856109076109069</v>
+        <v>0.26856109076109075</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18049ADB-9BA8-40C8-A790-A50994AD0406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F8441B-3A8D-4902-A344-FAB2C8612A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FF985ACA-917B-4185-9D6A-DD93BDDB2242}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{786222DF-73A3-4BDC-8650-7FF29CD2BB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF115A-CCD7-4430-8CEC-8FF806B632D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F037B08-897D-47E5-8C97-A80D4AD7F7AD}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77183256-7E95-4C74-8646-9F0B722BE119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DD6E74-00E5-4EB8-9BFA-B8DF514176F5}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.26856109076109075</v>
+        <v>0.2685610907610908</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F8441B-3A8D-4902-A344-FAB2C8612A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A226888-D193-4F41-A84B-9B826B7DA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{786222DF-73A3-4BDC-8650-7FF29CD2BB2C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C21C61D1-229B-4503-8D03-0FEF7229551F}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F037B08-897D-47E5-8C97-A80D4AD7F7AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73E5D9-2733-49CF-9CFA-8B24F7A62DA1}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DD6E74-00E5-4EB8-9BFA-B8DF514176F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7615D278-F96C-4071-9D47-207AAC78CABB}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A226888-D193-4F41-A84B-9B826B7DA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AD06FB-65FE-433D-8624-F7ACD028E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C21C61D1-229B-4503-8D03-0FEF7229551F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{60A42A8B-EBA8-40D1-AFBF-84B56D519124}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73E5D9-2733-49CF-9CFA-8B24F7A62DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238929D-52E5-4491-AE4D-337D5CDF8251}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7615D278-F96C-4071-9D47-207AAC78CABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A95B77F-FDF8-4058-AD7D-5784891515D0}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AD06FB-65FE-433D-8624-F7ACD028E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F86031-9BF5-425F-9A42-8D6FFCF76DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{60A42A8B-EBA8-40D1-AFBF-84B56D519124}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1567F4D9-A868-43F0-8CD4-D2729B994E51}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238929D-52E5-4491-AE4D-337D5CDF8251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C536AE08-BB03-4ACC-961E-81A344661BC4}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A95B77F-FDF8-4058-AD7D-5784891515D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641D5F8-3B7A-4CD0-8095-5816E03FDB4D}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.2685610907610908</v>
+        <v>0.26856109076109075</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F86031-9BF5-425F-9A42-8D6FFCF76DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD3E86B-4D89-42CF-9628-3888E44D100D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1567F4D9-A868-43F0-8CD4-D2729B994E51}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0028CBCC-522F-497A-8CDD-B6C6C0C6120F}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C536AE08-BB03-4ACC-961E-81A344661BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC78A10-A5AE-48BD-B402-A5B475ADB149}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641D5F8-3B7A-4CD0-8095-5816E03FDB4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D559DC-5ADB-4EAB-906D-FD862FE192D4}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD3E86B-4D89-42CF-9628-3888E44D100D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{324A7778-0164-479F-A842-323E944A334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0028CBCC-522F-497A-8CDD-B6C6C0C6120F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB047E17-C7B0-4CCF-AA16-EDC376A88222}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC78A10-A5AE-48BD-B402-A5B475ADB149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF3EFA9-ED1C-49AF-A380-ACA83AC143B4}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D559DC-5ADB-4EAB-906D-FD862FE192D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A70AC2-ECE3-495E-9B05-47BF0B20B8DE}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.26856109076109075</v>
+        <v>0.2685610907610908</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324A7778-0164-479F-A842-323E944A334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD61CAD-E357-4C3B-82D5-F84AB730A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB047E17-C7B0-4CCF-AA16-EDC376A88222}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7B4632B3-0E52-48DC-B962-3F88A651B24F}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF3EFA9-ED1C-49AF-A380-ACA83AC143B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2455D-293C-42F5-8758-AAF91A8C0D14}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A70AC2-ECE3-495E-9B05-47BF0B20B8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD996A-8F41-4D42-8E81-AA16A7D0CAFA}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.2685610907610908</v>
+        <v>0.26856109076109075</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD61CAD-E357-4C3B-82D5-F84AB730A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{756C55D9-26B5-4C18-A861-5B3BF8FCA342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7B4632B3-0E52-48DC-B962-3F88A651B24F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A582707-83E5-4BE2-A22E-85A780B8F4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2455D-293C-42F5-8758-AAF91A8C0D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D33EC9-AA70-4D15-8B82-1C78E05D3D22}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD996A-8F41-4D42-8E81-AA16A7D0CAFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C335EE81-E5BE-441B-A4DD-D8803BFF3EC5}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{756C55D9-26B5-4C18-A861-5B3BF8FCA342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{500D3F81-9712-4CB1-962A-52E621EB2455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A582707-83E5-4BE2-A22E-85A780B8F4EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CB92B531-C502-492A-8AF3-B6C518A77642}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D33EC9-AA70-4D15-8B82-1C78E05D3D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CD0727-EAF0-4DD1-A3BD-7E0B65F13E4C}">
   <dimension ref="B9:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C335EE81-E5BE-441B-A4DD-D8803BFF3EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB97B4F-0320-4198-8C7B-ADED2750B2CB}">
   <dimension ref="B9:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10045,7 +10045,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L111">
-        <v>0.26856109076109075</v>
+        <v>0.2685610907610908</v>
       </c>
     </row>
   </sheetData>
